--- a/Default_Mentorships_Filtered.xlsx
+++ b/Default_Mentorships_Filtered.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -54,6 +54,256 @@
   </si>
   <si>
     <t xml:space="preserve">Title_Word_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MY] Reported to HR after not hiring internal candidate, that person is now applying again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE: 9th April 2022: My boss finally gave me the direct order to hire T outright. I’m looking for other jobs now 👍
+I had a hiring round over last quarter to expand the team. This candidate (lets call her T) an internal one, applied to join the team.
+We put her through all the stages for the interviews, before we decided to opt for other candidates (external). I informed T that we’re not proceeding with her application on this occasion but were impressed with her test results and would love to consider her for future roles. T responded to me saying thanks, but doubt she will apply for any future roles in the team.
+After the hiring process is concluded, I got a message from HR, informing me that T raised to HR her views that:
+We never took her application seriously and that it was all a charade.
+I gave official reasoning that we do not want to hire her because she couldn’t start asap but never confirmed with her manager after our interview.
+The current team demographic is predominantly of a certain race, and she felt this played a part in my hiring decision
+I’ve provided my points to HR, in which they’ve sided with and closed the case after. These were:
+We took her through the official procedure, each step of the way just like every other candidate
+I had told her we wanted someone to start asap, and she informed me during the interview that she could not guarantee this because of her current commitments. I collected all information on starting dates based on the interviews of each candidates the same way.
+The team demographic can definitely be more diverse. We currently have 60% of team members of the same race. However, I did not play a part in hiring any of them as I’ve only managed this team for 6 months.
+After, T proceeded to let my boss know of her complaint to HR. My boss and T chats regularly and he’s a big advocate of her joining the department so I’ve had to spend time explaining what happened from my end.
+I told HR that I would be grateful if T can speak to me personally so we can address any issues. She refused. We had a company trip a week after. I was part of the planning committee. T pulled herself out from the trip completely. Of course, at this point I feel like she doesn’t want to speak to me about this at all.
+Fast forward another week, the candidate I hired decided to quit on probation (personal health concerns). I put out the job ad again with urgency. My boss then told me T reached out to him saying she wants to apply. I told my boss that she told me she ‘doubted that she would want to apply’ for a position in this team.
+T then reached out to me to formally apply to the role. She added that she’s made both my boss and HR aware of her interest and they advised she reaches out to me. I informed her that her application is received, but I would love to have the chance for us to clear the air in light of recent events. She agreed. At the time of writing this talk has not happened yet. My boss also messaged me to tell me to give her a chance, and asked me how many times do I need to reject her and that it would be ridiculous.
+Now, I have a few concerns on this application. I have been of course very disappointed with how she handled the previous rejection. I also feel like I cannot trust T with this, especially knowing that she is constantly personally messaging my boss. All signs point to me not wanting to hire her. I cannot find a way to professionally communicate this, and would love input. I also would be happy to hear everyone’s thoughts here. If you require more context, let me know.
+TLDR 1. Internal candidate wanted to apply to job role 2. Got rejected, gave salty response 3. Reported me to HR and complained to my boss 4. I opened another job ad 5. She applied and let my boss know, as well as HR 6. My boss tells me I should heavily consider her 7. I dont trust her now and wouldn’t want to hire her 8. Is it ok to reject her? Whats the best way?
+More info: 1. T does not get along well with most people in the company, I’ve had a chat with internal references. 2. One member in my team (key one) has expressed that she’s aware of T’s interest and would quit if I hire her (they worked in the same department previously) 3. T actually does good work, and I actually did heavily consider her previously
+UPDATE: Friday 1st April: I’ve had a chat with T. Based on the advice shared here I understand that I should make sure I have in writing that this is what HR suggested but unfortunately I’ve only had that verbally with HR. They did follow up with me in writing that they wanted to remind me that the previous claims against me was closed and they found nothing wrong with my hiring process. They also insisted that previous events shouldn’t play a part in my decision for this round and they want me to feel empowered as the hiring manager to be able to make any decision I deem fit.
+Anyway, back to the chat, T raised her viewpoints from what she saw during the last round:
+I reached out to an ex-employee about the vacancy, and that ex-employee told her about the vacancy. She was surprised that she was not made aware of the vacancy and once she was, she immediately applied on the job ad.
+From my end: I reached out to the ex-employee by recommendation of other managers who worked with her previously. I did not post the vacancy internally. T applied from an external job ad, and even then she didn’t message me personally - I reached out to her personally because I saw the application (eventhough I was already aware she wanted to join because my boss kept telling me how T has been telling him she wants to leave her current department and that my boss told her there should be an opening in my department soon).
+She apologised and said that she was actually suffering from anxiety during that week and reacted that way. She clarified that she doesn’t think I’m a racist and usually she would never make things about race but the way everything looked from the outside made her feel convinced that this played a part in the hiring process. She mentioned that she also confided in her current manager about this, and even my boss, and they both said that they don’t believe this to be the case, but if she strongly feels that way it needs to be raised to HR which is why she raised it. She also managed to add that she would usually never make things about race and has no issues with race, plus her best friend is of my race.
+From my end: My girlfriend is actually the same race as T’s so I played the same card in response (not too proud of myself for this one). But honestly wtf it’s weird that my own boss didn’t ask T to have a conversation with me, but asked her to go straight to HR instead. My response to T was I don’t know what it feels like exactly to be in that position but I can appreciate how it can look that way from the outside so I’m not going to invalidate how she felt about how it reflects on the hiring process. My shortlist of 5 candidates included 2 other candidates of T’s race.
+Conclusion: Based on the majority of advice given here, we will do a team interview. I won’t be involved. HR will be present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117
+Forget about T; you need a sit down with your boss to find out why they don’t trust you to hire the best candidate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">209
+The problem is your boss.
+Depending upon your relationship with him/her, you either hire T, or you explain to your boss why T isn't going to be a good fit.
+What's going to suck is that you're going to hire her, she's going to fuck up the chemistry of the team, and you're going to get reprimanded by your boss when the team starts to falter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84
+I dont get why T would want you to be her manager when she clearly has a problem with you. People are so difficult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68
+Absolutely agree she is not responding appropriately and very unprofessional. You need to be empowered to have the right team and she has clearly showed all signs against being the right fit, very immature and not straightforward. You're better off struggling with a less performing person but who's mature and open minded to reality.
+Proceed with her interview process and ensure you have someone witness this who you have high trust with. This person clearly will try to flip everything possible.
+If you chat with her prior to this meeting, also ensure you document the conversation as she may come back and say you said she will not get it.
+If your HR and Manager don't back you up, then it sounds like either your culture sucks or leadership sucks, can be both too.
+Good luck. Unprofessional people are super annoying especially those that don't take ownership and accountability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41
+From reading your post, it sounds like the only reason you didn't hire her was because she said during the interview that she wouldn't be able to start right away. I'm also looking at your "more info" section and you state that most people in the company don't get along well with her. I wonder if this has been exaggerated and also how reliable the information from internal references is. I'm just questioning if there could be bias among the people you asked. In other words, I assume you chose these internal references (rather than T having chosen them) therefore they might be colleagues who would be more likely to agree with your perspective. I'd also raise the point that there is research showing that women of color are perceived as more aggressive, hostile, less pleasant in work interactions than their white counterparts. It sounds like T could definitely have handled the situation better, but I also wonder if there is more to the situation that T playing the race card out of spite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21
+If you’re managing people, you will have to lead people you don’t like. You’ll have to figure it out. And a spiteful manager is a bad manager. What does the team think? Did you do a team interview?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22
+If the only issue is timing, you probably should hire her. Maybe it’s a truly gigantic company and wildly different departments, but (1) already working at the company will probably confer some benefits to onboarding; and (2) trying to hire someone externally often has unpredictable road bumps as well.
+Now you don’t trust her, but honestly, you gave her a TERRIBLE reason to not hire her; and your boss obviously wants you to, so he’s probably been signaling that to her; and apparently she’s qualified. Those together make it fairly reasonable for her to feel like this is personal in some way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15
+Might be an unpopular opinion but I think you should have hired her on the first round. If she is internal and knows the company, products, processes etc, how does it look when she sees an opportunity to move up in the company and you hire an outsider who promptly quits. I would be pissed too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went to the office for the first time. I fucking hated it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not my main account because I know some of my coworkers/friends browse this sub and would recognize me. I just want to rant and encourage people to keep looking for remote jobs and make the transition if they can/prefer it.
+So last week, after a year or so working from home, I had to go back (for the first time in my career) into the office. According to my company, we should work from the office because it will increase collaboration and people will perform better. Bunch of bs, but I had no other choice at the moment.
+So first things first, instead of waking up at 8:20 and join a useless meeting at 8:30, be on mute and proceed to go make my breakfast and take my dog for a walk, I now have to wake up at 7, get properly dressed (no more comfortable clothes), make sure I have lunch and breakfast prepped, get on the highway, drive, get there at 8:15, mindless chit chat till 8:30, join the same useless meeting on zoom (with coworkers from around the globe, what's the f. point? ) and now I HAVE to/MUST pretend to pay attention to something that has no relation to what I work with because well, I got no more flexibility on my surrounding environment.
+At home, I invested in a nice work setup. I have a nice chair, a stand-up desk, wireless keyboard/mouse/headphones, 2 monitors that I can adjust, plus a private kitchen to make my snacks, and teas.
+The first time I went to the office and I saw the work environment I felt ridiculous. It's a fucking cubicle, with a shitty keyboard, mouse, and headset. The best part is that the cubicle doesn't have tall walls so I can literally see/hear everything, including other people's monitors. The monitors, of course, are facing the hallway, so you can't see who's walking behind you, but whoever walks past you can freely see what you are doing. Manager's dream.
+I also have to wait in line now if I want to make some tea or something, delightful.
+At home, I am able to have a quiet environment and be super productive. When I get a card, depending on what it is, I can finish it in 2-4 hours, and then I can focus on doing something else for the rest of the day (learning/training, other meetings, or just not work at all since I was able to be productive).
+At the office, because of being constantly watched, I became lazy just to have something to hold on to/last for the rest of the day. I also noticed that my team members do the same. Also for me, IT IS EXTREMELY HARD to actually focus with a lot of background noise and as I mentioned above, because of the cubicles, every time someone gets up (every 10 mins), or gets a phone call, my attention is drawn to that and I lose what focus I had.
+The company kept saying we will be more productive at the office. That's the opposite of what I am seeing. My team is now taking longer for cards, and the amount of time wasted in the office is ridiculous. The number of people, mindless walking around, chit-chatting in cubicles, going out for lunch/ coffee breaks just to fill in the time is a joke(nothing wrong with that IMO, but I'd rather do that at home).
+I loved having a private bathroom at my house. I can go and do whatever I want to do in peace. At the office, welcome to the shitty stalls and pooping side by side because, yes, I do love the smell of people farting in the morning.
+The people that wanted to go back into the office, after a week of going to work and lunches and whatnot, started to mention some stuff during the stand-ups and I quote:
+"Are you guys feeling more tired than usual? I forgot I didn't enjoy the commute"
+"Man I forgot it sucked to have to prep a meal every day and wait in line in the cafeteria to reheat it"
+"I actually didn't realize I was saving money eating at home, I spent over 100 dollars last week on coffee and lunch".
+At home, after work, I could go for a jog right away or just go watch some Netflix and chill out.
+At the office after a long, tiring day? Nope, get in the car, you are going to waste 40 minutes in stressful traffic to get home.
+I am FUCKING glad, I am putting in my 2 weeks this Wednesday and going fully remote. I started looking 4 months ago when the company announced their plans because I was feeling that this office thing would be horrible. I tried it out and it just doesn't work for me.
+If you are looking for a remote role, keep applying/interviewing, you will get something too.
+If you like/prefer going to the office that is fine. I am not trying to say we should all be remote. Companies should offer FLEXIBILITY to let employees choose where to work from.
+We have different personalities and different preferences. Just because some people enjoy going into the office (or because management needs control) doesn't mean everyone has to.
+I am gladly never going to or near an office ever again.
+TL;DR: Went to the office for the first time in my life. I hated it and makes no sense to me. Companies should let employees decide where to work from. If they can't offer that and make their employee's lives easier/better, they should/will lose all their talent to companies that do.
+EDIT 1: There seems to be a lot of people saying that I am entitled. For a bit of background, I started working a couple of years ago as a dishwasher and made my way to where I am right now. I never had an easy path nor a college degree (I am self-taught with a small coding Bootcamp).
+Just because I prefer having a better quality of life/work, doesn't mean I am entitled. Instead of bickering with each other about who works harder or whatever, we should focus on having a better quality of life and trying to make it the norm. If you are working 6 days a week and you feel proud, good for you but I don't want that for me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159
+My old company went from wfh to full in office while the pandemic was still in full swing. We worked for 3 months remotely and my entire team performed better, had better attitudes, and were overall just more productive. Then one day, I was in the middle of daily scrum when we all got an email from HR stating that we need to report back to the office in two weeks time. Man my entire team was pissed. I threw in my two weeks notice and starting applying. Half my team did the same thing. Ended up landing a job that pays 20% more, gives an extra 2 weeks PTO, and its fully remote until the end of this year. Then we only need to go to the office twice a week and we get 6 weeks time that can be used to work remotely. Fuck the companies that want to control you. There are better ones out there. The one benefit of this pandemic is that it brought to light toxic companies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85
+Our 850 member team was told we will be going back to the office in June. Major corporation. When 200+ people put in their 2 week notice at once, the company said we could all work from home permanently OR go into the office, whichever we chose was fine. They quickly realized we had them. Still 20+ people left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">911
+Company refused to let me work from home during the second wave (unlike the first), even for valid health reasons, so I quit, they had over 10 outages since I left, and one month after I quit I got a fully remote job that pays 25% more. I've been enjoying my new job quite a bit for the several months I've been working at it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52
+I had really been missing the office so thank you for this. I moved out of state during the pandemic and am now fully remote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337
+Yep….funny thing is I have been working at the office for a while, and it’s others who I don’t want to return. The office space is quiet and dark, just perfect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128
+Open Office Plan is the hell on earth. Earplugs and noice canceling headphones is the only way for me to stay sane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626
+lol nice rant, I 100% agree. WFH FTW, i hope it soon becomes an industry standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27
+Agree, I don’t feel tired after WFH. At office I feel drained mentally by end of day. My mental health is most important thing for me so fuck going back to the office. My company is undecided yet but I’ll start looking for a remote job if they don’t offer WFH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had 6+ teammates give me positive feedback, 1 gave negative. Basically told I was underperforming and to "git gud" by manager. Not sure how to handle this situation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For background: my manager does not interact with us in any sort of day-to-day manner. So they rely on product owners/managers to know what is going on.
+During a performance review my manager and I were going over my peer feedback. I was given tons of positive feedback from my peers, including specific actions I took and items I worked on. It included overall stuff like being super helpful to teammates, great mentoring to the newer developers, deep knowledge in our tech stack including taking charge and discovering/fixing major issues within our codebase. They also mentioned how I was always super prompt with everything and worked great under tight deadlines. Quite a bit of this feedback referenced a group of items I had that uncovered some major flaws within our application.
+The single piece of negative feedback I got also called out that same group of items but framed it in a negative light. The item took much too long and there was a lot of bugs with it.
+My manager focused on that piece of feedback and asked what happened. I explained the backstory of the items, that it was supposed to just be some bug fixes but I uncovered major architectural issues and that our codebase was using a framework wrong. I kept the team up-to date during scrum, created meetings and chat groups with the relevant developers, architects, and product owner. It was well understood that the item was much bigger than anticipated. Granted it did have to go through QA a couple times because there was some bugs I couldn't reproduce in my environment, so I had to work closely with QA to figure out what was going on. Though every time it went through code review with multiple devs including senior and architects to make sure everything looked good.
+I was asked what I could do to make sure it doesn't happen again and I felt like I was forced to admit that I was performing poorly. It was obvious that my manager thought I botched the items. I was explicitly told I was underperforming and that I really need to figure out what is going on with me for why I'm slow at my work and pushing poor quality code. My manager said he was confused by the fact that I was pushing poor quality code and being slow despite having great programming skills and knowledge, being super helpful by helping my peers with their issues, basically all the positive feedback. He told me he couldn't offer any specific ways I can improve other than be less slow and commit higher quality code since he has no idea what the disconnect is.
+I fear I'm going to be put on a PIP since every single conversation I've had since is "You are improving, but not enough" with each more serious than the last. I feel like I can't make any mistakes and I'm being watched under a microscope. My team is rapidly growing so I don't think I'm being sacrificed as a budget cut. I'm not sure how to handle all my peers telling me I'm doing great but my manager telling me I'm doing poorly and sometimes I even struggle with knowing who to believe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200
+I get the impression that they are a poor manager and are not a subject matter expert in the subject matter they’re managing.
+I appreciate the phrase, “People don’t quit jobs, they quit managers.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225
+I think they don't deserve you, you should start grinding LC right now. Is your company a non-tech one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42
+It’s really difficult to know what’s going on here without more information — probably more than you’d be able to provide. I’ve seen folks be really well liked by their peers despite not delivering on the projects that they were assigned. This can happen when someone is always jumping into “helper” mode, sometimes for trifling or less significant issues, at the cost of more substantial efforts that actually move the needle.
+I’m not saying that’s what is happening in your case, just that peer feedback is only one specific metric and not the end-all-be-all.
+In any case, it sounds like you may be fighting an uphill battle with your manager. Whether or not that’s justified objectively, it could be a good idea to seek out a fresh situation, likely picking up a pay bump along the way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26
+Its always the same bullshit with a manager that wants you out “I can’t offer specific feedback of why I think you suck”. I would advise you to NOT doubt your skills, since its clear your peers gave you great feedback and simply start looking for a new job. Sometimes, a work relationship with a manager is soured and there is nothing on Gods green earth you can do to change that person’s opinion of you. From direct experience, I can tell you its a futile attempt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65
+Honestly don't put too much stock in positive feedback within peer reviews at companies.
+Some very high percentage of SWEs will never give negative feedback or criticize their co-workers in a peer reviews. I've talked to multiple co-workers at multiple companies in my 15 YOE and the vast majority say they will never say anything negative as they do not want to be the cause of somebody getting a bad raise or miss out on some promotion.
+So they just say positive stuff and call it done, even though it doesn't help the SWE with feedback. You have to be a pretty shitty worker to get multiple negative reviews from co-workers from what I've found.
+Granted this is not at top tech companies, but in my 15 years I only go 1 comment on something I needed to work on. ONE COMMENT!
+I know I'm not a great SWE and could do a lot of things better in my younger days. I found not getting the negative feedback to be a hinderance to growth because I thought I knew it all and had nothing to learn which was the furthest from the truth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19
+I think it does sound like your manager is an issue and you’d be happier elsewhere.
+The only advice I have is that you said you were forced to admit you were underperforming, but I don’t think you should have admitted that if you don’t believe it’s true. I agree that you don’t want to seem like you can’t take constructive criticism and that would make this a hard situation to navigate, but you do have to be your own advocate. If your manager isn’t super involved in day-to-day stuff and then you say you have been underperforming, they’re going to accept that at face value.
+A better manager wouldnt have put you in this situation though, so, not trying to blame you at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6
+"You suck."
+"This code is shit."
+"You're awesome."
+"That's brilliant."
+If a manager or a technical lead cannot give you clear actionable advice on how to improve, or state precisely why something is bad, they are a terrible manager.
+I cannot answer what is going on in your particular situation but an "atta boy" outside of a performance review is perfectly fine, but an "attay boy" or "you suck" in a performance review is bad management and awful communication.
+"I did the following thing..."
+"That's awesome, I like it!" is valid feedback outside of a performance review, and is good as a generic pat on the back.
+In a performance review, it should be "That's awesome for the following reasons {insert list of reasons} that solve a pain point around {description of paint point}."
+Feedback should be relevant, timely and actionable. Otherwise it is just someone bitching because they are having a bad day.
+Talk to your manager. Ask them specifically what is wrong and what action you need to take to fix the issue. If they just say "git gud" then you start shopping your skills elsewhere.
+Source: Have been a manager/technical lead for many years (probably longer than you've been alive) and have many bits of expensive, official looking paper that say I have read several books and listened to other people talk about the subject.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR wants me to rat out my coworkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello,
+In my workplace, there are regular memes that get circulated. I don't send any. I might show one or two employees in person what I'm laughing at. A few of these memes are explicit.
+I have since been reported by a female employee because she caught me showing a meme to one of my coworkers.
+I was asked to sit down with corporate HR and I was interrogated almost as if I were interrogated by police as a suspect for a crime.
+Anyway, they had a good cop/bad cop strategy. First hitting me with the good cop. A female asking me asking me simple questions. After that didn't work, they transitioned to a bad cop strategy where the guy was trying to berate me and saying the individual that reported me received dick pics and asking me why I sent those, saying it's gotta be me because it matches my "skin tone". (I'm olive skin toned). Then when I said it wasn't me, he attempted to berate me and repeatedly said, "it's got to be you, or you're just someone who has pictures and videos of other guys' penises on your phone". He repeated "you have other guys penises on your phone" over and over. I couldn't even get a word in. Almost as if somehow that would be a bad thing?
+Through this whole thing they kept emphasizing that it could be my employment status if I don't answer all of their questions or that I'm not truthful.
+I've been put on leave with pay thus far. I've emailed examples of the memes being sent per their request, but now they're asking me exactly who is involved.
+​
+I have no idea what to do. I do not want to rat out anyone.
+Just to emphasize, I do not make the memes, I just receive them. I might show them to a few people at work, but that's all.
+​
+TL;DR: I'm getting in trouble for memes i showed to a coworker, I did not create any of them, and I'm now being accused of sending dick pics to a female employee. My work wants me to rat out my coworkers, but I don't want to.
+​
+What do I do? Should I seek a lawyer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10
+A good lawyer will tell you to give them what they want.
+You're already in deep shit, and rightly so. Your only way out is to do the right thing.
+"I might show them to a few people at work". FFS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13
+There's a lot to unpack here so let's start from the beginning. You're in the wrong here. Showing explicit memes to your coworkers was unprofessional and the fact that you didn't create the meme doesn't change that. I can't answer anything about the explicit photo that was sent, but I imagine the employee who received it shared the phone number of the person who sent it. I don't know why HR would think it was you.
+As far as the rest of the investigation goes, you can be disciplined for failing to participate up to and including termination. I get not wanting to rat people out, but we're adults not a bunch of elementary school children bound by some playground omertà. As for consulting an attorney, I always encourage employees to take whatever step they feel necessary to make them comfortable. But just know that HR doesn't have to talk to your attorney or allow him or her to attend any meetings they have with you. You're the employee and your attorney is just a stranger to them.
+Based on what you've written here, if I were the HR guy investigating this case I would likely recommend termination. You have not acknowledged any wrong doing on your part, you show no remorse for your actions, and you're unwilling to answer questions for fear of being a rat. The fact that you've been sent home is an indication of just how seriously your employer is taking this incident. I would not be surprised if your time there was short but at the very least I'd expect a serious warning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19
+Well…
+You should be in trouble for showing explicit memes at work. Doesn’t matter if you sent them, you showed them.
+Should you rat out your coworkers? Eh… a couple of ways to think about it.
+Doesn’t matter if you do or don’t, you’re busted. Ratting someone out won’t make your issue go away. So keep your mouth shut.
+On the other hand… ratting someone out will keep the issue from being perpetuated in the work place. You telling someone may save someone else from being offended or hurt or otherwise.
+I vote for #2 - help keep it from happening to others in the future.
+And stop showing dumb shit off at work. This is what happens - you are the only one to blame.
+And the “bad cop” - what a tool… you should have said “yeah I have penises on my phone… you must want to see them”
+Edit: oops - don’t get a lawyer, get another job and grow up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5
+This is enough to get you fired. If you want to have any hope of keeping your job, you should cooperate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14
+So interesting all women in this story are "female" but the men are "guys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3
+It doesn't matter how little you perceived the sharing of memes. That fact that an employee 'felt' it was sexually inappropriate is enough to get you disciplined, possibly termination.
+You own up to your aspect, explain you were not posting or sending or hanging out leaving out for others to see. Be adamant about the things that are not true. They don't need to prove it was your DP, this isn't a court, be professional if they are trying to pin something on you that isn't true. If You have a bad attitude they could just cut you.
+You could tell them who you shared the meme with to confirm your story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3
+The only way you can look after your own best interests here is to get another job somewhere else before they fire you because more than likely they are going to fire you, and there is nothing you can do about it (assuming non-unionized, private sector job in an at-will state in the U.S.).</t>
   </si>
   <si>
     <t xml:space="preserve">Startup VS Government Job Offer</t>
@@ -114,256 +364,109 @@
 I’ve tripled my salary ever since I’ve left and my old coworkers are still hovering around doing the same old work for almost the same pay and are completely unmarketable and don’t have the skills or drive to do anything else</t>
   </si>
   <si>
-    <t xml:space="preserve">what do I tell the team lead when I can't solve the given task on my own?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I cancelled my plans and tried to solve it in the weekend. tried everything on the internet but still there are bugs in my code. I'm in my probation period so I am scared if I tell him I couldn't solve it he would take it in a bad way.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63
-Just be honest, say you can't solve it and ask for some guidance. If you get fired then fuck that trash company and find a better one. Canceling your plans and working over the weekend is bullshit, if this is what you're going to do every time you run into a wall, you're going to become depressed af.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55
-As a senior, that has also been a team lead multiple times I don't want people working overtime if they're stuck. I want them to use their team and me to get their tasks done (I've heard rumours that there's no "I" in "team").
-The easiest way to lose my trust is to not communicate when you're struggling and trying to cover over it, or obfuscate the truth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17
-It’s better to ask for help than to spin your wheels and not say anything. But there is one very important thing you must do when you ask for help.
-When you ask, be sure that you bring a detailed list of all the things you tried, and what the results were. Provide as much detail as you can while still being concise.
-This is a critical step because it shows you gave it a serious try, and aren’t resorting to others at the first sign of trouble. It also demonstrates that you value the time of the person you’re asking. If you ask for help this way, not only will people not get mad, they will be glad that you are taking measures to unblock yourself in such a thoughtful and structured way.</t>
+    <t xml:space="preserve">[MI] Coworker Help!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I work for a local insurance agency. My dad has owned it for almost 25 years. It’s a small office of four employees, but we service a great deal of people; many of which are local and lower income families or young families. We pride ourselves on doing right by our customers, many of which are not white. One of my coworkers, who has been here for nearly 7 years and for the most part has been a good employee, has taken a turn for the worse. Unfortunately, my father is a non confrontational person and has a hard time with harder talks with people.
+This employee refused to wear a mask during covid. My father didn’t make a big deal out of it, as we weren’t having customers in the office. Myself and the remaining coworker complained a bit, but kind of accepted it as “it is what it is”. It sucked, but I kept my mouth shut for my dad. Recently, things have gotten bad. She has been blatantly racist on a few occasions. I’ve called her out a few times and asked for her to keep those opinions to herself, but without any success. I’ve tried to put my headphones in and just do my job, but I can’t anymore. This behavior is so inappropriate. But, she’s been here for a long time and is practically family to my father/boss. I’ve voiced my opinion to him politely for a while, but I need some change here!
+How the hell do I go about this? I’m ready to flip the hell out, but I know my boss/dad won’t want to fire her. Compromise would be great, but how do you compromise with that behavior?!
+Any advice would be great. I made this post so I could reference it if it comes to that when I talk with him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22
+Nothing you can do if he doesn't care to take action. You are an employee in this scenario not his daughter. He doesn't seem to care that one employee is causing problems and that it is causing concerns for other employees.
+Your options are limited to raise it to him and hope he acts, quit, or live with it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11
+Ugh, I feel for you. Unfortunately your dad is putting his business and reputation at risk by keeping someone around who freely expresses their shitty racism. This coworker has the ability to destroy the company’s reputation if they ever let some racist thought slip out, and the more comfortable they are using those words, the more likely that is to happen. Maybe you can show your dad some articles about businesses that have been damaged by employees like this because at some point they could say the wrong thing and an interaction goes viral and that’s it. It will be too late to fire the coworker as the damage will be done. Maybe if you frame it like that you can inspire him to at least speak to this employee.</t>
   </si>
   <si>
     <t xml:space="preserve">7
-In my experience you’re more likely to get in trouble if you DONT say anything when you’re stuck. I have several years experience, and I still ask senior devs on my team questions all the time. After I’ve been stuck on something for a while, it becomes a time sink, especially when a 2 minute slack conversation can get me back on track. It only becomes a problem if you’re not learning and retaining anything IMO</t>
+One other element might tip the scales to prompt corrective action. Her biased misconduct sooner or later will affect customer relations, could cost loss of business and could result in bad publicity to the agency. perhaps actions that affect the bottom line might prompt dad to deal with the issue.
+2nd alternative, could you propose an agency expansion opening a second office in the next community in which you would be the branch manager -agent in charge?
+3rd option, you know the business now, set up your own shop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9
+Well dad's not going to fire you, so how about if every time she pulls this you publicly shame her. Sign her up via email for a bunch of diversity and inclusion newsletters, pepper the walls with posters and stuff for BLM or whatever group she's targetting, every time she does something send an email to all 3 other people to say this behavior will not be tolerated. If your dad's going to punk out about it, make it so uncomfortable that she either quits her racist ass shit or dad has to pick between the two of you.
+He's gonna pick you.</t>
   </si>
   <si>
     <t xml:space="preserve">4
-Don't say you can't solve it. Make a list of the things you've tried and what you looked into to try to solve it. Say that you think you're going down the wrong path and would greatly appreciate any advice. Often what a senior engineer is doing is just a rubber duck sort of Q&amp;A. What have I tried? Why isn't it working? What can I try next?
-Good luck!</t>
+Personally, I’d fire her immediately, but I can’t. How can I tactfully handle this situation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3
+I would ty to calmly explain to your father that continuing to employ this person could be placing his entire company (and legacy) at risk. It only takes one public incident or report from a customer to get his name plastered all over the wrong side of these issues. That is a huge amount of exposure for a small company.
+It doesn't even have to be public since you are an agency for a larger company. If that larger company gets wind of this conduct and that it was known to your father, all it takes is word getting to them to sink the whole business. That only takes ONE disgruntled customer, one pissed off employee, or even some random person in the general public that sees the kind of shit that they undoubtedly post online and figures out who they work for.</t>
   </si>
   <si>
     <t xml:space="preserve">2
-Just let your lead knows that you are unable to solve it and need guidance. Also, voice out such matter in the morning stand up (if there is any) and simply ask that you will need some senior’s guidance. There’s nothing wrong with asking for help and seniors in general are willing to help a junior out.</t>
+Thanks everyone for the help! I had a pretty good idea of how I was planning on fixing this situation, but just needed some input to make sure I go about things correctly!</t>
   </si>
   <si>
     <t xml:space="preserve">2
-Like many said already, be honest. Ask for help. Nobody can know everything. I have 30 years in IT and I still learn from juniors as well as seniors. If they expect you to know everything, they might be the problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
-Worked for a company that was ambiguous about whether you needed to ask for help or demonstrate superior problem solving abilities. It lasted 6 weeks as they decided that contractors were too expensive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is it just me, or is Silicon Valley overrated?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So I’ve been working in Silicon Valley at a FAANG company for two weeks. I was so, so excited to come here and start working for my dream company. At this point, I just feel… disappointed. I’m not sure if it is the area or the company, or just a combination. Nonetheless, I just feel it all to be a bit overhyped. I may be at fault for some of that.
-I find it so odd that quite a few vacant shops/buildings near the campuses of the largest, most powerful companies. I’m pretty unimpressed with the area as a whole. Yes, the weather is nice, but I don’t think that makes the area deserving of such absurd rent prices. At this point, I think I’m just going to get a bit of experience and GTFO. Thank you for coming to my TED talk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48
-Depending where you are, you can also just get promoted within. If I wanted to hustle and smile I could stay where I am and do well with promotions. But I want to have a life and mutter under my breath about how I could burn the whole place to the ground if I wanted, so if I want better pay, I need to jump ship or at least threaten to with an offer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154
-Don't forget the FIRE enthusiasts that realise that working in a high-pressure tech job is a bit draining, and that spending some money on starting a family, taking well-needed vacations, and generally buying nice things isn't such a terrible thing to do.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119
-I have close friends working for 4/5 of FAANG (not Amazon) and honestly, even though they get lumped together, it varies a ton across the companies:
-Google + Apple - most people I know who work there actually drink the Koolaid to some extent, whether it's the perks, product they're working on etc. My average Google / Apple friend has been working there for 5-10 years and it's their current company (in many cases their only job since graduating from college). Also Google in particular seems to be easy to transfer internationally after a few years, once youve paid your dues in Mountain View.
-Facebook - they pay a decent amount and seem to have geographic flexibility beyond just making you work in the main office in Menlo Park / Sunnyvale / whatever. But nobody I know actually drinks the koolaid, it's just convenient high paying, and surprisingly technologically interesting work.
-Netflix - pays absolutely crazy salaries but their office is in the middle of nowhere, they supposedly lay off 10% of engineers every year and you work crazy hours. Most common place to actually do "2-3 years then quit for better work life balance" among my friends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47
-To be fair, many people do leave. That’s why we’ve seen a huge migration of tech workers to Denver, Austin/TX in general, Raleigh, etc. etc.
-I think it really depends on your career trajectory and family ties. You don’t need to be in the Bay Area to make 300k these days, so if that’s where you max out, might as well leave unless family ties you there. However, many, many people there are making 600-800k and that’s not currently possible elsewhere (with rare exceptions). And the cost of living doesn’t really matter when your HHI is seven figures or nearly so.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84
-No fault. You went somewhere, landed a job you were aiming for, and you’ve got a place to be for a bit. That’s a heck of a lot to be proud of. Don’t forget to live a little in this line of work.
-It’s alright. Do your thing, and then go where you need to.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212
-SV is basically suburban sprawl. The Chinese and Indian restaurants are pretty good, it's denser than Sun Belt sprawl, but it sure isn't Manhattan.
-For vacancies, the two year WFH has hurt retail and food near the big company campuses.
-Rent is high because almost no new housing has been built in the last forty years. Yeah, there are new apartments, but I doubt all the building between Palo Alto and South San Jose exceeds 10,000 apartments and homes. So of course the market is tight, and many people are well paid, so rents go through the roof.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">558
-Silicon Valley is an extremely boring area. Just a bunch of workaholics making bank. SF would be a more exciting place to live if you swing it.
-Source: Me living in Silicon Valley.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why is it so hard to change jobs?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am getting pretty depressed about it and I feel like coding is slowly losing all the fun it originally had. I do interviews and you never know what to expect. Is it leetcode? Resume quiz? If it’s a take home project, what kind of take home project is it? What are they expecting and looking for?
-The stuff a company could ask is endless and it feels like you have to be perfect or get lucky to land a job. It feels like they are looking for very specific things and if your missing one or two of them then your shit out of luck. The process just kills your confidence too.
-I know there will be at least one person to see this that can’t relate. Please just tell me the secret. How do you do get offers easily? Do I just suck that bad? I work my ass off and have a pretty good portfolio, CS degree and getting a masters in CS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85
-All your questions in first paragraph have a simple solution.
-Just ask the recruiter or whoever contact you. Ask them what kind of interview it is. Ask them the expectation of the take home project.
-If you’re interviewing with tech companies, they should be happy to answer these questions. If they aren’t willing to tell you, it is already a red flag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28
-I don’t know if it helps but I think that grind and feeling is commonplace. I just got an offer to leave my current programming job and that was after so many grueling interview loops with big, small, and even FAANG that I lost count. Some went decent, some were quite bad. I about quit mid interview when some company kept peppering me with Angular specific questions when I was told just knowing Java is fine. So no, you don’t suck. If you have the luxury, I would consider a small mental break to regroup and reevaluate. Let your mind rest.</t>
+I also worked for my old man for 10 years. If you have outside forces that can deal with this, use them. Your dad is treating this like his whiny teenager is throwing a tantrum and eventually it'll wear itself out. I wasn't able to get a handle on the trouble employees and it came to a head between me and my father and we had to part professional company. Be prepared for knock on effects. This'll damage whatever relationship you have with your dad, possibly your mom and other relatives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think i just got fired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've been with my firm for 8+ years. Recently, last December, moved to a new group for better hours. I've had a lot of frictions with my current boss.
+She's on vacation this week and last night sent me a meeting invite for tomorrow morning, just to me no one else.
+Today I noticed I've lost all accesses that pertain to the current role, however I can still access remotely my emails.
+I'm not sure where to go from here.
+Also as a side note, I was on maternity leave up until September of last year; not sure if this affects anything.
+UPDATE: Called HR and laid down all my disagreements with current boss. I have kept all records of her harassments and lastly her threatening me directly, date and time. Didn't mention cutting off of the accesses as i still had email and zoom access. 4 hour later all accesses are back, meeting with boss is canceled and instead I have a follow up meeting with HR.
+FINAL UPDATE: First, as cliché as it might sound I really want to thank each of you for your advice and encouraging DMs. I just found out this sub and has been quite helpful. I had the call with HR today. They presented me with 3 options. 1) go back to my previous role effective Monday. 2) see if there are other opportunities within the company and move internally 3) get a package and depart (from the sound of it they didn't think I would go with this so I don't have numbers yet). They told me to think them over and decide in the next day or so. Will take the day off pick up my son from daycare and have a "mommy and kiddo day of fun". Still haven't decided on the options but glad this didn't get ugly. Thanks again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46
+I think you’re right. Sorry.
+On the “firing”side of the house, it’s always been an odd dance with IT access when it comes to job eliminations/firings and cutting off access.
+Sucks to find out this way. Not trying to cause you to lose hope, but this is a pretty typical structure/setup for an elimination.
+Hopefully there’s severance involved and you can land on your feet. Keep this in mind - it’s unlikely there’s anything you could have done to prevent this. This is a case of “it’s them not you”
+Best of luck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57
+It's a bit weird that you've lost access whilst still on company time and not been suspended etc; I'd raise that to your IT dept in case it's a genuine error and you don't look like you've been sat around doing nothing. If they act sheepishly, then you'll know, but they should at least flag it to a manager in your division (e.g. your boss' boss) who should have the decency to tell you what's going on, or at least tell you to not do anything until tomorrow.
+I don't think Mat leave is relevant, unless there's more to it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51
+I contacted IT and they investigated and told me "I'm not on the list of people who has this access". So to them was not a technical issue.</t>
   </si>
   <si>
     <t xml:space="preserve">14
-If you're having trouble switching jobs then it might be your resume or the confidence you're displaying. You may give off a "I don't know what I'm doing" vibe and doing that unconsciously.
-It's the old thing - "When you know what you know, you realize how much you don't know" and that might be going through your mind.
-So you might be trying to keep new employers expectations low and giving off that vibe of not really being a knowledgable producer.
-Looking for a job is always difficult because you want to be a good candidate but it's often really hard to know what they're looking for so it sometimes seems like you have to be a master of all trades and a newbie at none. But that's not true at all.
-Keep focused on what appeals to you, push yourself to learn those areas where you don't know as much and be sure to put your confidence forward as much as possible....maybe more than you even realize.
-hang in there - something will pop for you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31
-I'm with you dude, I find it incredibly difficult to get offers for all the reasons you specified. I've lost all motivation to apply anywhere else. I'll prob just grind it out where I am at unless they can me. Then I'm really gonna be fucked.
-These people that just get jobs so easily, I hate them with a passion. A lot of the people I work with were like "I had 3 competing offers but I choose to come here" and I'm thinking "mofo this was my only offer".</t>
+It does sound like your employment may be terminated. I'm sorry. It feels terrible, but it won't be the end of the world.
+When reviewing termination packages, please keep in mind:
+-Pay in lieu of notice is legally required by the ESA (in most/all? provinces). You do not need to sign anything or agree to anything to be entitled to that money. It is based on years of service as per the ESA (details will be available online). It is not required if the termination is "for cause".
+-Severance is payment above and beyond the ESA minimum. It is usually offered in exchange for signing a release agreement so that you cannot pursue any additional legal action against the company. It is calculated based on many factors including: length of service, age, level (manager, executive, individual contributor etc), education, salary, location and is supposed to reflect the amount necessary to sustain you until you find a suitable similar position. A simple calculation people often provide is 1 month per year of service but that isn't necessarily true.
+There needs to be consideration for a contract to be valid (you need to have some benefit) so definitely do not sign anything if they are not offering you more than the ESA minimum, but if you do it is likely not enforceable
+You must be provided time to consult with a lawyer before being required to sign anything
+-Cause is very difficult to prove and the onus is on the employer to prove it. Do not be dismayed if they claim for cause, you will have additional recourse. Post again if that happens or speak with a lawyer of course.
+ETA: some of the other advice being offered in this thread is either irrelevant in Canada or the commenter is misinformed (circling things and writing in that you disagree is not good advice). Be careful what advice you trust on the internet and definitely confirm with alternate sources. Everything I've written can be confirmed on various government or legal (Canadian) websites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25
+You should reach out to your manager and let them know you don't have access.
+If you're terminated, you should go see an employment lawyer about the offer you receive and see what they think. For 8 years of service, it'll be worth at least a consult.
+Not sure how your mat leave impacts anything since it sounds like you came back, moved to a different department, and things just aren't working out. Unless something is specifically said about your mat leave, there's no reason to think that it has anything to do with your potential termination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+Don’t panic and try to find out what happened. If they terminated your employment without notification, fuck them. However, seek to understand and know that it could always be a misunderstanding/mistake.
+Keep us posted.</t>
   </si>
   <si>
     <t xml:space="preserve">2
-I'm about to graduate, so am not sure how relevant this is to your situation, but I had quite a few interviews and offers.
-I found that for all of the interviews, I was able to get a sense of what the process would look like. If the first stage was an HR screen, I'd ask him/her then. If it was immediately with sometime technical, I'd clarify via email what to expect. No one had any problem telling me what the process looks like. They wouldn't prefer you to interview blind.
-As for the interview content, they all cover one of three things:
-LC
-Take home project
-chat about background/experience
-In 2 cases I had to present a ML research paper I found interesting.
-To your latter question, I think it came down to sending about 80 applications, networking, good people-skills and a healthy amount of leetcode. And a lot of practice. I'd take interviews with companies I had no interest in working with just to get a sense of what they are looking for. I kinda stopped going to class for a month and a half for this process so idk how helpful that is for someone in a different position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does the job search make anyone else want to cry?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I just got like my 15h rejection in a row, this time with feedback on a hackerrank that said "Our engineering leadership thought that your HackerRank solution was a bit convoluted and not what we are looking for currently." Except that I know I'm a good engineer and my solution was not at all convoluted. All my former coworkers were happy with my work. My bosses were happy and gave me good performance reviews. Maybe they're annoyed I used functions instead of having everything in a for loop or that I used camel case. I don't fucking know. I just know that I'm tired of answering questions correctly and getting rejected.
-I've been out of the job force for nearly a year now. I'm going to be homeless in a few months. And literally every place rejects me after I correctly answer a tech question. Yes I know I shouldn't have quit my job without another one. I didn't think I'd literally be blacklisted from the fucking industry because of it. I'm fucking over it. I just want a fucking job. I'll take a minimum wage job at this point. From $250k TC to being homeless in a few months.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">462
-Stop applying to high stakes 250k/yr jobs. Apply to be a software dev for an insurance company or a bank; you'll make 100-150k a year and probably won't have to do leetcode in the interview. This is not a difficult field to get a job in if you look in the right places and you don't expect FAANG-level comp.
-EDIT: also, get in touch with recruiters from big staffing firms like TEKSystems. They can land you a mediocre contract gig as a software dev in no time at all, and that can hold you over for 6 mos. to a year before you land a better gig somewhere else.
-This sub suffers from a severe amount of melodrama from people who don't get FAANG jobs and think their career in tech is over. Widen your search and you'll be fine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">439
-I'm not making a judgment on if you are a good SWE or not, but be careful with this line of thinking. I don't know where you work but but some companies just have shitty practices.
-I have worked at companies with shitty practices early in my career. I got high praise and good reviews, but I was still a shitty SWE. They way they wanted stuff done was not how most companies viewed clean code.
-So I learned lots of bad habits that most likely screwed me in interviews until I adjusted.
-Also, I got in to the habit of saving off my code from these interviews before it ends. It's a simple select all copy/paste and now I have a record for what I did incase I want to get external opinions later. If it's in a shared coder pad, just drop a quick do you care if I copy the code locally as a quick question at the end. I've never had anybody that cared enough to say no.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">630
-Back when I was about to graduate and was looking for a job I got a call the day before thanksgiving. It was the recruiter from google letting me know I didn't pass the final interviews. Pretty hard to make pies while crying lol'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146
-I don't think 15 rejections is a lot. Many people get more than that before they get an offer. With your experience you could find a contract role while you look for a FT role. It will prevent you from being homeless and it would helpful to at least be currently working when you're interviewing. I hope you find something soon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23
-I’ve read through a bunch of comments but I haven’t seen anyone touch on soft skills. Many have mentioned how you reacted to the feedback for your solution. Maybe you are coming off as abrasive or arrogant to these interviewers. My current boss told me the only thing that separated me from the other top choice was my soft skills. This is just a guess at what potentially may be hurting you so please don’t take it personally.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67
-Searching for a new job in this industry makes me want to find another career.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126
-The market for SWEs with any experience is extremely hot right now. Hiring managers are calling up everyone in their network and literally begging for candidates. I can't see any sane company outright rejecting someone because their whiteboard solution is arbitrarily too long.
-I suspect there's something broken with your approach that isn't captured in your post. I'm not saying this to attack or criticize you. I'm saying it because I believe there's something simple that could be corrected, which should have a dramatic impact on your results.
-My suggestion would be to find someone, preferably someone who's been in the role of hiring manager, to review your resume and mock interview you. And this is the most critical part, solicit brutally honest feedback from them. Many people in that position will prioritize kindness over honesty. Especially if the problem is something embarrassing, e.g. you forget to wear deodorant or something.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">229
-Are you applying for roles that make 250k TC or greater? You do know that’s an outlier salary in tech, and is usually reserved for niche experts and principal level engineers?
-I think if you applied for the typical 100-140k base pay senior engineer position, assuming you have enough years experience, you would get one soon enough. If you’re looking for 200+, that would explain the struggle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrum Master wants to visit each member of the project at home "in order to understand the work from home experience for a developer."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She just told us in our daily standup that she wants to visit each member of the project at home in order to give advice on how to rearrange the interiour for more productivity, wants to talk with family to identify distractions and wants to sit right next to someone in order to see working from home. What should I do? That sounds really uncomfortable to me because I'm quite introverted and I don't think that this will help me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2300
-The solution is simple, but the situation is absurd to begin with.
-You respectfully and calmly say "I appreciate your interest in helping with workspace advice and improvements, but I'm not comfortable with a home visit, thank you."
-Of course it's invasive, absurd, etc but you don't need to dig into that with the SM. Just say no, then mention something to your manager.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">518
-That sounds like a hard “no”. Also, violates the entire idea of sending everyone home to begin with. One person visiting everyone on the team just means that if anyone has coronavirus, everyone after them in the visit list will also get exposed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213
-That is not only invasive, but incredibly inappropriate. It flies directly in the face of “social distancing” and puts everyone who she visits at risk.
-Even before the pandemic I’d never heard of anyone doing that for remote work.
-That is a hard no, and you should be consulting with Human Resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">497
-I think she's trying to be helpful but especially the "talk to family" bit is incredibly invasive.
-I don't know if this is an option for you, but my response would be "heck no". Maybe as an alternative offer to send some pictures from your work area?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42
-Crtl-c cntrl-v.
-Thank you for your offer to come help organize my workspace, perhaps a more efficient use of time would be to have a virtual training on creating a productive at home work environment. I'm happy to give you a virtual tour of my work space.
-I cannot let you visit my home office because this would be a health risk to me, my family and yourself and additionally violates government health guidelines.
-Additionally requesting to speak to my family is inapproperate and a violation of our privacy.
-If you feel a home visit is necessary please consult with HR I've cc'd them on this email.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I was humiliated because my undergrad is EE and not CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This happened a few months ago. I was called by a HR person who told me that they were interested in my profile. After getting a perfect score in their easy leetcode questions I was scheduled a final interview with a mexican dev (I'm from Colombia).
-And then it started. That guy didn't read my CV before the meeting and got angry when I told him that my undergrad was in EE and not CS. He spent almost 15 minutes berating me about it. "Can you really program at all? what are you doing here? you won't be able to get anything done". After his speech about how I didn't have the knowledge needed to get the job, he saw that I got a perfect score in their assessment. Then he gave me 5 minutes to talk about my experience and the interview ended. I thought about telling the HR person who started the process, but they ghosted me after this interview.
-I'm quite angry about it, specially because I never applied. It was their HR staff who got in touch with me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">535
-Completely unprofessional behaviour on their part. As an interviewer, you are representing the company and are expected to provide a good experience to candidate regardless of whether you go forward with them or not.
-You should consider this as a failure on part of company and interviewer, not yourself</t>
-  </si>
-  <si>
-    <t xml:space="preserve">485
-Plenty of EE folk can code well lol.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286
-Yep, that was a dick move by the interviewer.
-Try not to feel humiliated, if anything the interviewer should feel humiliated for not actually giving you a shot (despite you already having proved yourself in the assessment).
-If the HR person ghosted you, whats the loss in telling them about the terrible interview? At best they actually understand what happened and make sure the next candidate (they headhunted) doesnt get the same treatment, at worst they ignore you, as they are doing now?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106
-This industry sure has turned weird.
-When did coding become something you could only learn by doing a CS degree? When did every shop start requiring idiotic coding tests? As if clicking the keys were the most important part of creating software products.
-I'm glad I retired. I feel for you kids.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37
-You should absolutely report this interviewer. Their behavior is harmful to the company and to all future applicants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31
-You weren't humiliated because your undergrad is in EE and not CS.
-You were humiliated because you earnestly went in for a job interview and the company sent in a complete ass.
-I know this person who is a fairly renowned in the cybersecurity space, people give talks on derivatives based on her work, famous cybersecurity people tweet her, etc. Coincidentally, she is also Colombian. Anyways, a company got in touch with her and tried to recruit her kind of like this company did with you. This was for a pretty senior position too, not the standard sort of job thing. During her interview, this guy would not stop asking her if she wrote her own code by herself. He didn't ask just once, he kept asking this a huge number of times - he just wouldn't believe it, even though the entire reason she was at that interview in the first place was because she was being recruited for some recent work she did that got famous.
-She said it was due to sexism, and I'm sure a good deal of it was. But at the same time, in my experience, I think there's just a bunch of stupid super not self-aware people in this line of work who are super toxic because they are insecure or think they are a ultra-technical super-guru. It's not enough for these people to feel good about themselves (they usually don't), they have to make others feel bad to feel good. They need to make it a point to themselves to put others down just to feel more sure they are "the best" or at least feel less incompetent, because who can say who is good or not than someone who knows what's up? It's the dumbest thing ever though because if you are "the best" then you don't need to work for a company, and if you're competent you won't pull this shit.
-Just think of how stupid this guy was - "can you really program at all? what are you doing here?", like dude that's the entire point of the interview and instead of doing his job he did this.
-Your degree is fine, expect more situations like this from time to time even when you are experienced and accomplished because even extremely talented people go through this - and by "this" I mean dealing with some idiot who takes an interviewer role as some position of power that can be an opportunity to "be the boss" and "tell it as it is" instead of taking their professional duties seriously and just doing the interview.</t>
+Way to stand up for yourself!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5
+Yes, so first of all, there should definitely be another employee (HR rep/employee) that will be on the call if you’re getting fired. So if you get into the call/meeting and someone else is on it too, probably getting canned. This is policy for most companies (well companies who are smart) because it can protect them from any wrongful termination suits. However, you should absolutely get severance, no question about it. Being on maternity leave within the last year and getting fired within like 9 months is absolutely cause for wrongful termination. You may not have a case at all but from a business owner’s perspective, they’re going to want to protect themselves and guarantee you won’t sue. So they will offer severance and you’ll sign the package basically agreeing not to sue them, etc.. If you’ve worked for them for 8 years, your severance should be minimum 2 months pay (rule of thumb is usually 1-2 weeks for each year worked). I have been in a very similar situation before and I actually got 10 weeks severance and I only worked there for 4 years. Hope this helps and good luck!</t>
   </si>
   <si>
     <t xml:space="preserve">lnterview From Hell</t>
@@ -459,56 +562,49 @@
 Wow, I recently started learning JavaScript a few months ago and it makes me happy to know I could have solved this problem. Not to say I deserve to have a job right now, but lately I’ve been having anxiety that I’ll never know enough information to be ready to have a job. This post definitely gives me hope. Back to the grind.</t>
   </si>
   <si>
-    <t xml:space="preserve">Manager told me it's "not a good look" that i'm taking PTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I started a new job 2 months ago. It's my first dev job. I have accrued a few days of Paid Time Off thus far. Catch is, at my company the PTO does not roll over to the new year. It's use it or lose it.
-So I scheduled to take some PTO the week of Christmas, just to use up my days. Why not right? Well, my manager told me that it was a "bad look" for me to be taking PTO 2 months into the job, and that I had no need to take it this early. Now i'm worried about how i'll do when annual reviews come. Did I screw up?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3800
-lol no you did not screw up. That's definitely a bad sign regarding company culture. At my company they're practically begging us to take PTO if possible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1300
-My company actually gives you a bonus if you take a certain amount of time off AND do not log in the whole time you are away.
-It sounds bonkers but they adopted it after reading these studies about how the first few days of vacation you are just recovering from being so busy all the time, then you have a stage where you panic because you don't know how to live your life without work, and finally in stage three do you finally relax and your body recovers. Once they embraced that, they adopted the bonus system so people can't sneak in a quick peak (and ruin the health effects of a longer break).
-The result? People don't leave my company. We are pretty loyal because we know that there are these big long vacations waiting for us, plus extra time for the odd day off here or the long weekend there. They save so much money in HR recruitment because we usually only hire due to growth, not due to attrition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">476
-Your manager sounds terrible. They don’t know your life. Who are they to say whether you “need” it or not? They expect you to just waste your PTO? No you didn’t screw up. Your manager is showing their true colors.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">721
-If there was a screw up anywhere, it was the part where you took the job, but that's not important right now. Your manager is a clown and more than likely this job won't last you long enough for "a bad look" to matter (I mean because you will find a better place, not that they will fire you). Get your money, get your experience and use it find a job somewhere where they don't say dumb shit like its a bad look to take vacation over the biggest holiday of the year.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88
-If I were you, I wouldn't give a shit how I look when the annual reviews come. Because I'll have already quit and be at my new job long before that happens.
-WLB is my #1 priority in life, so denying PTO (or saying taking it is a bad look), is the reddest of red flags for me.
-Use this as a lesson for questions to ask about during the reverse-interview process when looking for your next job. Ask questions about work life balance, culture, PTO policies, etc. This kind of thing should've jumped out at you right away if you asked about it.
-Take the vacation.
-At my previous company I started the Monday after Thanksgiving break. So in December I had &lt;1 month on the job. You bet your ass I took 4 days of vacation in December to combine the Christmas and NYE holidays.
-Nobody cared. They encouraged it. They would've been more concerned if I hadn't taken that time off. Why? Because almost everyone else at the company took that time off. It doesn't matter that I've only been there less than a month... I'm a human being, that takes human amounts of vacation.,
-Basically the same deal at my current company. Also started in mid-November, and have 2 days requested off. Nobody cares. In January I'm requesting 3 more days off.
-A part of a good culture is being encouraging a healthy work life balance. Saying it's not a good look that you want to enjoy yourself over the holidays with your friends and/or family is disgusting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25
-Lol I started a new job recently and it just happened that I had appointments to get deep scaling done on my teeth in my second and third weeks on the job.
-At first I was worried I might get shit for taking off so soon after starting. Then I thought uh, my life doesn't stop because I start a new job, I'm not even think about putting dental work on hold to appease an employer. If they didn't like it, fuck 'em.
-Turned out they didn't care are all and actively encouraged us to do whatever we need to do. Lucky me, I guess.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21
-Lmao wtf? You earned that PTO. Unless there is some critical work that you are desperately needed for there is absolutely no reason why you can’t take that PTO. Even if there is it’s a bad look for your manager to demand that work be done on Christmas week 🙄 Your manager is psycho.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18
-If you go to HR like other people are telling you they're just going to rat you out to your manager. You may be able to take the time off, but guess who is now on someone's shit list?
-Your manager sucks, you are completely in the right. Start looking for a new job, this place is only going to get worse if this is how they are treating you from the start.
-If anything they did you a favor by showing you their true colors so early. You don't want to work for this company.</t>
+    <t xml:space="preserve">Rant: Is the job market really that bad for new grads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi, I am in Vancouver and will be graduating in August of this year. I have a diploma and will have a bachelor's in computer science from Douglas College and the University of British Columbia respectively along with one-year full stack experience
+Let me walk you through a normal day for me for the last 4 months
+I wake up and check my email on my phone with the first 5 being rejections from the previous day and the next 5 being LinkedIn automated Job alerts. I then brush my teeth put something on the tv that I can tune out of constantly and start applying to jobs till 5 (cover letters personal website the whole shebang) I stop and read a few chapters of the "cracking the coding interview" bible till I either fall asleep or want to do something else to relax.
+I have gotten one live coding interview 1 take home and 2 hatchway interviews (which if the rumblings on the internet are meant to be believed, might be a scam) all of which have given me imposter syndrome.
+I am exhausted demotivated and my ego has taken a massive hit. keeping in mind I have the best possible resources that anyone in my position can have while looking for work. My mom is a recruiter who helps people in need hence she has a pretty good network with other recruiters I have family in the US who are in CS and were shocked to see despite having strong credentials was having soo much trouble and have forwarded my resume to their bosses.
+Are other people in my situation having the same trouble or am I doing something wrong?
+TL;DR job market bad. me sad. no hire. why?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193
+You're getting rejections? Lmao I'm having to follow up only to receive "we decided to go a different direction.."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62
+I'm starting to think it's kinda rough. I recently made a thread that got a lot of traction and everyone said my resume was solid and seemed confused why I wasn't getting interviews.
+Honestly, everything seems rough right now. Housing, cars, jobs, I don't know. Shitty for sure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114
+Yes. New grads are getting the shaft. It took me 8 months after graduation to find me first job 1.5 years ago. The good news is that it gets WAY easier to get jobs after your first one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36
+You’re getting rejected? I’m not even hearing back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9
+I think it depends on the undergrad. My buddy who is super smart landed a job in Vancouver after applying for under a month. I did about as good in a different city. Maybe the job market is worse than it used to be but many fresh undergrads are being hired.
+For some not getting hired is bad luck, but to put it bluntly many others just aren't great candidates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47
+Bro, I have a bachelors in CS and a Masters in IT. I've been trying to find a job for 4 months after I was suddenly laid off. I only got a job last week. Also, for my previous job, it took me 9 months to find a job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8
+Lol, I'm from Douglas College too (timing wise we might even know each tbh. Graduated Dec 2018 from there). I started searching months before my diploma graduation because of this sub. Pretty sure I had a stacked resume for a new grad barring people who got into big tech internships and I still only had a 5-10% interview rate. Started searching at the start of my last semester and only got a job just before my final exams. Honestly, it got a lot easier the closer I was to graduating so you might also just be applying too early especially for startups who can't wait 4 months for you to graduate. I even offered to drop at my last semester at one job where I made it to the final interview.
+That said, you are graduating in a somewhat shaky market. Lots of bad tech news has come up and some companies are doing hiring freezes. This is most likely spilling over to the Canada market too which is A LOT more conservative than the US.
+Or your resume is bad... Post an anonymous version. Feel free to PM me too.
+Edit: Also, you will have a degree. You can get jobs in the US with a TN visa so don't limit yourself to Vancouver. I find companies there were a lot pickier despite paying much lower.</t>
   </si>
   <si>
     <t xml:space="preserve">If you want to know why a big company rejected you, send them a GDPR request</t>
@@ -582,208 +678,6 @@
   <si>
     <t xml:space="preserve">1
 Can you be more exact about the feedback you received about your performance? What exactly did they say you were doing wrong? You've already said you can program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You all think Twitter working conditions will be the same as Tesla if Elon Musks buyout is accepted?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Companies ran by Elon musk have quite the reputation in the industry to say the least of poor working conditions and long hours. Personally I know a handful of friends that have worked there and have said this is 100% true and it's because of Musk and his 'expectations'. Now that it's looking like a twitter buyout is highly likely, do you all think Twitter devs will be forced to adopt these kinds of conditions?
-Edit: Sorry just seen that it was accepted so little change from the title, I guess the question is now completely focused on how it will effect working conditions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">423
-I took a recruiter call from the Boring company and they wanted me to take a ~60% paycut and work twice the hours.
-Hard pass.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">310
-Working conditions would change drastically.
-For one, half of the compensation would be locked up as paper money. This would be a much bigger deal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">996
-Things will absolutely, without a doubt, change.
-Twitter is a stagnant company, and essentially has been since it’s inception. The reputation is that their engineers basically sit around and do nothing. The stock price has done pretty much fuck all since it went public almost a decade ago. There’s been zero innovation. Their ad tech is really bad given how long the company has been around. They still have a ridiculously bad bot problem, and it’s kinda astounding that they haven’t developed a better solution to keep it in check. In short, Twitter has been a mismanaged company.
-Conversely, Elon’s companies are run like sweat shops. WLB is bad, and Elon is constantly overpromising and then working his employees like cattle to try to get them to deliver.
-I expect much of the company will be gutted, and the day-to-day working conditions for people that stick around will absolutely change.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">261
-As someone who worked at Tesla, anyone who works at any company ran by him has an extremely high chance of being severely disappointed and worked to death.
-The work is built to such a point that any and all human functions are regulated to assembly line procedures in order to meet the high publicized demand, as he is a numbers man and is focused on results first with little regard for casualties sustained and a burnt out workforce.
-Not to mention the mental health factor and the pay. The pay can be god-awful. And being driven to the point of daily mental breakdowns, panic attacks and tumultuous depression.
-Just my opinion. But chances are, it won’t fare many changes for the better as opposed to what it is now and what will be expected as usual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53
-A lot of big RSUs are going to be paid out, which means a lot of golden handcuffs are coming off. There’ll be a small exodus before the ink dries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49
-I might be in a good position to answer this. I know multiple people that have worked and interned for different engineering orgs within Tesla (across Sunnyvale, Palo Alto, and Fremont). Although it varies by team, about half the teams seem to have surges of overtime work. Elon's lack of discipline runs throughout the company so priorities can shift quickly (and sometimes by tweet!). Some teams are very close to him, which is a lot of pressure to keep up with his whims. Retention is also poor. In the midst of all this is a lot of cool technical innovation that is both driven by Elon's desires, while also being hindered by his roaming attention and lack of discipline. A friend who interned at SpaceX had similar things to say, but fortunately had farther distance from Elon. This all matched with my impressions when I interviewed for a software position at Tesla last year.
-I also talked with a senior dev at Twitter and did an interview last year. Contrary to what other people are saying in the thread, Twitter has great engineering and employees. You can check out their technical blogs to see what I mean, but to summarize: their operations at scale, high-volume data pipelines, consistency across sharding, focus on minimizing latency, and high uptime numbers are very impressive. They seem dedicated to making their core services work great, and had a clear vision about becoming a stable business supported by consistent revenue streams such as advertising. (Sorry if this all sounds a bit buzzword-y.) Their innovation is being a quietly good social network that avoids Facebook's PR disasters (and Zuck weirdness), keeps working all the time, and is fast enough to stay "on the pulse" of everything.
-I got a very positive impression of Twitter, and believe that it will change a lot with Elon at the helm. I think Twitter will follow his other companies and have both higher highs and lower lows. I assume most Twitter employees will hop off that roller coaster at some point as churn sets in.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20
-I expect a lot of people will quit, and I think that'll facilitate a change in work culture. Like others have mentioned, I'm not sure that twitter didn't need a bit of shake up, but I'm not sure that it'll be a super desirable place to work for any but Muskovites.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rant: Is the job market really that bad for new grads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi, I am in Vancouver and will be graduating in August of this year. I have a diploma and will have a bachelor's in computer science from Douglas College and the University of British Columbia respectively along with one-year full stack experience
-Let me walk you through a normal day for me for the last 4 months
-I wake up and check my email on my phone with the first 5 being rejections from the previous day and the next 5 being LinkedIn automated Job alerts. I then brush my teeth put something on the tv that I can tune out of constantly and start applying to jobs till 5 (cover letters personal website the whole shebang) I stop and read a few chapters of the "cracking the coding interview" bible till I either fall asleep or want to do something else to relax.
-I have gotten one live coding interview 1 take home and 2 hatchway interviews (which if the rumblings on the internet are meant to be believed, might be a scam) all of which have given me imposter syndrome.
-I am exhausted demotivated and my ego has taken a massive hit. keeping in mind I have the best possible resources that anyone in my position can have while looking for work. My mom is a recruiter who helps people in need hence she has a pretty good network with other recruiters I have family in the US who are in CS and were shocked to see despite having strong credentials was having soo much trouble and have forwarded my resume to their bosses.
-Are other people in my situation having the same trouble or am I doing something wrong?
-TL;DR job market bad. me sad. no hire. why?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193
-You're getting rejections? Lmao I'm having to follow up only to receive "we decided to go a different direction.."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62
-I'm starting to think it's kinda rough. I recently made a thread that got a lot of traction and everyone said my resume was solid and seemed confused why I wasn't getting interviews.
-Honestly, everything seems rough right now. Housing, cars, jobs, I don't know. Shitty for sure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114
-Yes. New grads are getting the shaft. It took me 8 months after graduation to find me first job 1.5 years ago. The good news is that it gets WAY easier to get jobs after your first one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36
-You’re getting rejected? I’m not even hearing back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9
-I think it depends on the undergrad. My buddy who is super smart landed a job in Vancouver after applying for under a month. I did about as good in a different city. Maybe the job market is worse than it used to be but many fresh undergrads are being hired.
-For some not getting hired is bad luck, but to put it bluntly many others just aren't great candidates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47
-Bro, I have a bachelors in CS and a Masters in IT. I've been trying to find a job for 4 months after I was suddenly laid off. I only got a job last week. Also, for my previous job, it took me 9 months to find a job!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8
-Lol, I'm from Douglas College too (timing wise we might even know each tbh. Graduated Dec 2018 from there). I started searching months before my diploma graduation because of this sub. Pretty sure I had a stacked resume for a new grad barring people who got into big tech internships and I still only had a 5-10% interview rate. Started searching at the start of my last semester and only got a job just before my final exams. Honestly, it got a lot easier the closer I was to graduating so you might also just be applying too early especially for startups who can't wait 4 months for you to graduate. I even offered to drop at my last semester at one job where I made it to the final interview.
-That said, you are graduating in a somewhat shaky market. Lots of bad tech news has come up and some companies are doing hiring freezes. This is most likely spilling over to the Canada market too which is A LOT more conservative than the US.
-Or your resume is bad... Post an anonymous version. Feel free to PM me too.
-Edit: Also, you will have a degree. You can get jobs in the US with a TN visa so don't limit yourself to Vancouver. I find companies there were a lot pickier despite paying much lower.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you ever been shocked by how poorly run a major company is?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recently been working on a project as a vendor for one of the country's largest companies, and one of the "top" companies in our industry.
-I have been appalled by how horrible their internal processes are. Their Product team seems to have absolutely no idea of their business goals and seems totally disconnected from their development teams. Their development teams seem wholly incompetent and lack the fundamental understanding of what is required for a software integration.
-These are just some basic examples based on my interactions, but it seems insane how a company like this has been able to succeed and grow with such incompetence. It's like we were paired with the "stupid" kids on a school project.
-I previously worked at an extremely large company, and I was nothing but impressed by the intelligence of my peers and the standards of our internal processes. I wrongly assumed every large and successful company would be similar.
-Anyone have some horror stories to share?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">233
-Sure have!
-I remember being so impressed when I finished grad school and started working at NORTHROP GRUMMAN. They flew a bunch of us new grads out, gave us a tour, wine/dine/etc. it sure looked impressive. In hindsight my first red flag was when someone pointed out a computer in their lab was still running Windows XP (this was mid 2010s).
-Over the next 4 years, I saw gross incompetence everywhere. Nepotism in hiring/promotions was rampant. The diversity that the company pushed so hard manifested itself in a weird way where various ethnicities were basically confined to sections of the main corporate building. For example, the corner section I worked in was predominately Jewish and all of them came from the same synagogue in NYC. Past our section was the S. Korean one, next was Indian, etc. etc. I heard some pretty nasty things said between the different ethnicities/sections. They all acted like separate and competing companies so needless to say everything was a mess.
-I've since left that company and the industry entirely. 0/10 would not recommend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">403
-The sheer number of companies that rely on a lengthy list of google spreadsheets is shocking to me. Like no one is in charge, oversight is incidental.
-Makes me realize how much work a conspiracy would truly take an how humans just can't manage projects well enough to conspire properly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121
-On a tangent but it's crazy how many companies don't take care of data as they should. Large companies that don't encrypt or hash information they should, keep PII data in plain view with little to no access control, expose their production environments, or generally have incredibly weak security measures in place. I'm honestly shocked we haven't seen more incidents of data breaches.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32
-I got a job I was so excited about with a HUGE international telecom company. I interviewed with and had offers from multiple teams at the company and the one I went with had all great things to say. Microservices, NoSQL, working at a huge scale to manage big BIG data. Everything I wanted to do and plenty to learn. Yay!
-Then I started. Our team never got a manager. I spent weeks in meetings for 8 hours per day. I was with this team for SIX MONTHS and was never assigned a single piece of work. My team of 5 engineers was assigned a single microservice to migrate or something and within a day or so that assignment was rescinded for "political reasons". WTF.
-I got an offer pretty soon after reentering the job market -- turns out having that name on your resume, even for 5-6 months, looks impressive lol. My new job is with a comparatively tiny company and I absolutely love it! It was well worth the 6 months in hell to get to where I am now :)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74
-Literally every single company. It feels like every company runs on hopes and prayers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70
-I worked for a high growth post-IPO company. The executives had delusions of grandeur. They thought they could just create a prestigious tech company where people would want to join simply because of its prestigious brand. They poured resources into auxiliary work to get tech cred, to the detriment of the core business.
-Employees saw through this. The work wasn't that groundbreaking, and they pay &amp; benefits were insufficient. A company can't grow sustainably with high employee attrition.
-The company's shed its excess and is focused on its core mission. Internal organization is still janky but it's on the right path now.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80
-Too big to fail is a real thing, and large old companies are typically disasters internally.
-Companies can hold it together through their growth phase, founder rolling off and selecting a CEO. But once you get a couple of generations removed from founder, then very large companies tend to atrophy into disasters.
-THe best run firms I have worked in are mid sized. The very large firms have all been terribly run.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17
-My company (which is a mega company in the United States) plainly stated they will not adjust wages into the current market after freezing them over all of COVID. Almost every good engineer worth their salt has left, leaving a skeleton crew of almost as many managers as engineers. We have tens of thousands of engineers, so this is truly a mass exodus as it's flat across all teams, everywhere.
-They supplement this with offshore contractors who literally cannot code (because, for example, they have a QA background and there's no one else), the onshore contractors know the reputation our management has so switch out to other projects ASAP. Nobody will apply for full time roles, but when they do, the engineers usually fail the candidates in the interview but management hires them anyways because they are so desperate to maintain management positions when their team has literally no one on it. As you can imagine, these new engineers while trying their best work 60-80 hour weeks because of the insecurity coming from less prestigious backgrounds and still get almost nothing done because they are elevated 2-3 titles above where they should be and expected to perform as such
-This company is the reason why you have internet service and no small internet providers and is launching their own streaming service to boot. I can't see any reality where the software engineering side of this company is not a literal shit show of keeping the lights on and removing features due to being unable to maintain them while an equivalent number of managers congregate in the corner while senior leadership juggle titles. I'm shocked at how good of a scam it is in terms of management siphoning funds via their salaries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I know a report of mine is getting fired imminently, what can I say?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The title sums it all up. I am in the lowest level of management and I have a couple of direct reports. I am very comfortable being in the lead technically but I'm a total noob in the administrative side of things.
-This person is a direct report of mine and has been underperforming since joining the company. They made some improvements here and there but not enough for even a good Junior engineer.
-I have weekly one on ones and I ask them daily how things are going and how I can help but they keep getting stuck in the tiniest most basic tasks for development such as debugging or writing DRY code (we've had pair programming sessions about these multiple times in the past).
-I don't want to be rude and I don't want to crush their spirits but upper management send to have a decision made and I want to give this Dev the opportunity to try harder and improve, or find another job with a clean slate, without the defeat of being fired.
-How can I hint this situation? What can I do without compromising the company?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400
-“How are things going and how can I help you” and “you’re not performing as expected” are two very different things. Sometimes people actually need to hear the latter one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267
-First, I would let upper management know that you are going to chat with this person and see if you can help them turn around. Then, I would just have a very straightforward conversation with the person and let them know that they have not been meeting their targets. Suggest that they either perform better, or find an environment that would be a better fit for them.
-Sometimes, people are unhappy, but afraid to quit. Or, they aren’t getting the help and support they need to succeed. Either way, a simple conversation is the best way to ensure fairness all around.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183
-If upper management has already made a decision, you may be too late to say anything useful. There should have been a conversation before this where you acknowledged not just that the work wasn’t where it needed to be, but that a failure to improve would mean being let go.
-The thing to do now is to talk to your own manager and clarify whether or not the decision is final. If it is, you just need to align on the timing and messaging. There’s not much value in trying to drop subtle hints today if an official message is coming next week.
-If this actually isn’t final yet, you still want to talk to your boss about what this person proving they could turn things around would look like. Then, you need to have a very explicit conversation with the person in danger of being let go about what you’re looking for and what happens if you don’t see it.
-In the future, you need to worry less about not being rude, and more about being clear. You can be nice about the delivery, but if you water down the message in an attempt to be nice, you’re doing the person who needs the feedback a disservice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50
-As already some people pointed out, if the decision is final we are probably already too late.
-If not, it's a good idea to have some sort of escalation policy as a manager. You need to have this conversation with them before even thinking about letting them go.
-What you describe sounds like the first step, the next steps would be:
-Clear feedback
-Ultimatum
-Letting them go.
-A good framework is letting them know they are not meeting expectations with concise examples. It's also important that they leave the 1-1 with specific actions and you have to make them accountable for them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91
-You’re trying to be nice and save this persons feelings. But you’re actually not helping them at all.
-Instead of asking how things are going and how you can help you need to be telling them what’s going wrong, how they are not meeting expectations, and then discussing that with them and leading them towards improvements.
-If they cant write code in the correct way after pairing multiple times you need to be blunt and ask why they are doing things in this way when you’ve shown them and discussed it before.
-Maybe the problem is they haven’t understood either why you write the code the way you demonstrated, or possibly that you weren’t just making a suggestion and were actually telling them that’s how you wanted.
-Right now it may be too far along for you to actually make any changes to managements decision to fire this person. But before you try defend them you need to think carefully about can they actually improve or do you just not want to be the bad guy in the situation?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">323
-Sorry, but how are you 'management' if you can't have a straight, honest, and clear talk about them not meeting expectations?
-Don't sugarcoat it. Be friendly, professional, and respectful but also please just be honest with them. Explain what the expectations are, and that they are not meeting them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20
-I'm not sure what you can say to them besides telling them to start looking for a new job. The soon you tell them the less time they will be without job.
-At the same time I hope that conversations about performance happened already in the past and this decision won't come too much as a surprise.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20
-Don’t hint. Tell them that they aren’t performing to the level you required. But that you want to see them succeed. And work with them on an improvement plan.</t>
   </si>
   <si>
     <t xml:space="preserve">NYC or SF?</t>
@@ -844,63 +738,331 @@
 When you say “original location was NYC”, what specifically do you mean by that? Did the job posting say NYC only?</t>
   </si>
   <si>
-    <t xml:space="preserve">I think i just got fired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I've been with my firm for 8+ years. Recently, last December, moved to a new group for better hours. I've had a lot of frictions with my current boss.
-She's on vacation this week and last night sent me a meeting invite for tomorrow morning, just to me no one else.
-Today I noticed I've lost all accesses that pertain to the current role, however I can still access remotely my emails.
-I'm not sure where to go from here.
-Also as a side note, I was on maternity leave up until September of last year; not sure if this affects anything.
-UPDATE: Called HR and laid down all my disagreements with current boss. I have kept all records of her harassments and lastly her threatening me directly, date and time. Didn't mention cutting off of the accesses as i still had email and zoom access. 4 hour later all accesses are back, meeting with boss is canceled and instead I have a follow up meeting with HR.
-FINAL UPDATE: First, as cliché as it might sound I really want to thank each of you for your advice and encouraging DMs. I just found out this sub and has been quite helpful. I had the call with HR today. They presented me with 3 options. 1) go back to my previous role effective Monday. 2) see if there are other opportunities within the company and move internally 3) get a package and depart (from the sound of it they didn't think I would go with this so I don't have numbers yet). They told me to think them over and decide in the next day or so. Will take the day off pick up my son from daycare and have a "mommy and kiddo day of fun". Still haven't decided on the options but glad this didn't get ugly. Thanks again!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46
-I think you’re right. Sorry.
-On the “firing”side of the house, it’s always been an odd dance with IT access when it comes to job eliminations/firings and cutting off access.
-Sucks to find out this way. Not trying to cause you to lose hope, but this is a pretty typical structure/setup for an elimination.
-Hopefully there’s severance involved and you can land on your feet. Keep this in mind - it’s unlikely there’s anything you could have done to prevent this. This is a case of “it’s them not you”
-Best of luck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57
-It's a bit weird that you've lost access whilst still on company time and not been suspended etc; I'd raise that to your IT dept in case it's a genuine error and you don't look like you've been sat around doing nothing. If they act sheepishly, then you'll know, but they should at least flag it to a manager in your division (e.g. your boss' boss) who should have the decency to tell you what's going on, or at least tell you to not do anything until tomorrow.
-I don't think Mat leave is relevant, unless there's more to it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51
-I contacted IT and they investigated and told me "I'm not on the list of people who has this access". So to them was not a technical issue.</t>
+    <t xml:space="preserve">Does the job search make anyone else want to cry?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just got like my 15h rejection in a row, this time with feedback on a hackerrank that said "Our engineering leadership thought that your HackerRank solution was a bit convoluted and not what we are looking for currently." Except that I know I'm a good engineer and my solution was not at all convoluted. All my former coworkers were happy with my work. My bosses were happy and gave me good performance reviews. Maybe they're annoyed I used functions instead of having everything in a for loop or that I used camel case. I don't fucking know. I just know that I'm tired of answering questions correctly and getting rejected.
+I've been out of the job force for nearly a year now. I'm going to be homeless in a few months. And literally every place rejects me after I correctly answer a tech question. Yes I know I shouldn't have quit my job without another one. I didn't think I'd literally be blacklisted from the fucking industry because of it. I'm fucking over it. I just want a fucking job. I'll take a minimum wage job at this point. From $250k TC to being homeless in a few months.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">462
+Stop applying to high stakes 250k/yr jobs. Apply to be a software dev for an insurance company or a bank; you'll make 100-150k a year and probably won't have to do leetcode in the interview. This is not a difficult field to get a job in if you look in the right places and you don't expect FAANG-level comp.
+EDIT: also, get in touch with recruiters from big staffing firms like TEKSystems. They can land you a mediocre contract gig as a software dev in no time at all, and that can hold you over for 6 mos. to a year before you land a better gig somewhere else.
+This sub suffers from a severe amount of melodrama from people who don't get FAANG jobs and think their career in tech is over. Widen your search and you'll be fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439
+I'm not making a judgment on if you are a good SWE or not, but be careful with this line of thinking. I don't know where you work but but some companies just have shitty practices.
+I have worked at companies with shitty practices early in my career. I got high praise and good reviews, but I was still a shitty SWE. They way they wanted stuff done was not how most companies viewed clean code.
+So I learned lots of bad habits that most likely screwed me in interviews until I adjusted.
+Also, I got in to the habit of saving off my code from these interviews before it ends. It's a simple select all copy/paste and now I have a record for what I did incase I want to get external opinions later. If it's in a shared coder pad, just drop a quick do you care if I copy the code locally as a quick question at the end. I've never had anybody that cared enough to say no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630
+Back when I was about to graduate and was looking for a job I got a call the day before thanksgiving. It was the recruiter from google letting me know I didn't pass the final interviews. Pretty hard to make pies while crying lol'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146
+I don't think 15 rejections is a lot. Many people get more than that before they get an offer. With your experience you could find a contract role while you look for a FT role. It will prevent you from being homeless and it would helpful to at least be currently working when you're interviewing. I hope you find something soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23
+I’ve read through a bunch of comments but I haven’t seen anyone touch on soft skills. Many have mentioned how you reacted to the feedback for your solution. Maybe you are coming off as abrasive or arrogant to these interviewers. My current boss told me the only thing that separated me from the other top choice was my soft skills. This is just a guess at what potentially may be hurting you so please don’t take it personally.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67
+Searching for a new job in this industry makes me want to find another career.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126
+The market for SWEs with any experience is extremely hot right now. Hiring managers are calling up everyone in their network and literally begging for candidates. I can't see any sane company outright rejecting someone because their whiteboard solution is arbitrarily too long.
+I suspect there's something broken with your approach that isn't captured in your post. I'm not saying this to attack or criticize you. I'm saying it because I believe there's something simple that could be corrected, which should have a dramatic impact on your results.
+My suggestion would be to find someone, preferably someone who's been in the role of hiring manager, to review your resume and mock interview you. And this is the most critical part, solicit brutally honest feedback from them. Many people in that position will prioritize kindness over honesty. Especially if the problem is something embarrassing, e.g. you forget to wear deodorant or something.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229
+Are you applying for roles that make 250k TC or greater? You do know that’s an outlier salary in tech, and is usually reserved for niche experts and principal level engineers?
+I think if you applied for the typical 100-140k base pay senior engineer position, assuming you have enough years experience, you would get one soon enough. If you’re looking for 200+, that would explain the struggle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know a report of mine is getting fired imminently, what can I say?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The title sums it all up. I am in the lowest level of management and I have a couple of direct reports. I am very comfortable being in the lead technically but I'm a total noob in the administrative side of things.
+This person is a direct report of mine and has been underperforming since joining the company. They made some improvements here and there but not enough for even a good Junior engineer.
+I have weekly one on ones and I ask them daily how things are going and how I can help but they keep getting stuck in the tiniest most basic tasks for development such as debugging or writing DRY code (we've had pair programming sessions about these multiple times in the past).
+I don't want to be rude and I don't want to crush their spirits but upper management send to have a decision made and I want to give this Dev the opportunity to try harder and improve, or find another job with a clean slate, without the defeat of being fired.
+How can I hint this situation? What can I do without compromising the company?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400
+“How are things going and how can I help you” and “you’re not performing as expected” are two very different things. Sometimes people actually need to hear the latter one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">267
+First, I would let upper management know that you are going to chat with this person and see if you can help them turn around. Then, I would just have a very straightforward conversation with the person and let them know that they have not been meeting their targets. Suggest that they either perform better, or find an environment that would be a better fit for them.
+Sometimes, people are unhappy, but afraid to quit. Or, they aren’t getting the help and support they need to succeed. Either way, a simple conversation is the best way to ensure fairness all around.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183
+If upper management has already made a decision, you may be too late to say anything useful. There should have been a conversation before this where you acknowledged not just that the work wasn’t where it needed to be, but that a failure to improve would mean being let go.
+The thing to do now is to talk to your own manager and clarify whether or not the decision is final. If it is, you just need to align on the timing and messaging. There’s not much value in trying to drop subtle hints today if an official message is coming next week.
+If this actually isn’t final yet, you still want to talk to your boss about what this person proving they could turn things around would look like. Then, you need to have a very explicit conversation with the person in danger of being let go about what you’re looking for and what happens if you don’t see it.
+In the future, you need to worry less about not being rude, and more about being clear. You can be nice about the delivery, but if you water down the message in an attempt to be nice, you’re doing the person who needs the feedback a disservice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50
+As already some people pointed out, if the decision is final we are probably already too late.
+If not, it's a good idea to have some sort of escalation policy as a manager. You need to have this conversation with them before even thinking about letting them go.
+What you describe sounds like the first step, the next steps would be:
+Clear feedback
+Ultimatum
+Letting them go.
+A good framework is letting them know they are not meeting expectations with concise examples. It's also important that they leave the 1-1 with specific actions and you have to make them accountable for them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91
+You’re trying to be nice and save this persons feelings. But you’re actually not helping them at all.
+Instead of asking how things are going and how you can help you need to be telling them what’s going wrong, how they are not meeting expectations, and then discussing that with them and leading them towards improvements.
+If they cant write code in the correct way after pairing multiple times you need to be blunt and ask why they are doing things in this way when you’ve shown them and discussed it before.
+Maybe the problem is they haven’t understood either why you write the code the way you demonstrated, or possibly that you weren’t just making a suggestion and were actually telling them that’s how you wanted.
+Right now it may be too far along for you to actually make any changes to managements decision to fire this person. But before you try defend them you need to think carefully about can they actually improve or do you just not want to be the bad guy in the situation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">323
+Sorry, but how are you 'management' if you can't have a straight, honest, and clear talk about them not meeting expectations?
+Don't sugarcoat it. Be friendly, professional, and respectful but also please just be honest with them. Explain what the expectations are, and that they are not meeting them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20
+I'm not sure what you can say to them besides telling them to start looking for a new job. The soon you tell them the less time they will be without job.
+At the same time I hope that conversations about performance happened already in the past and this decision won't come too much as a surprise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20
+Don’t hint. Tell them that they aren’t performing to the level you required. But that you want to see them succeed. And work with them on an improvement plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was humiliated because my undergrad is EE and not CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This happened a few months ago. I was called by a HR person who told me that they were interested in my profile. After getting a perfect score in their easy leetcode questions I was scheduled a final interview with a mexican dev (I'm from Colombia).
+And then it started. That guy didn't read my CV before the meeting and got angry when I told him that my undergrad was in EE and not CS. He spent almost 15 minutes berating me about it. "Can you really program at all? what are you doing here? you won't be able to get anything done". After his speech about how I didn't have the knowledge needed to get the job, he saw that I got a perfect score in their assessment. Then he gave me 5 minutes to talk about my experience and the interview ended. I thought about telling the HR person who started the process, but they ghosted me after this interview.
+I'm quite angry about it, specially because I never applied. It was their HR staff who got in touch with me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">535
+Completely unprofessional behaviour on their part. As an interviewer, you are representing the company and are expected to provide a good experience to candidate regardless of whether you go forward with them or not.
+You should consider this as a failure on part of company and interviewer, not yourself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">485
+Plenty of EE folk can code well lol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">286
+Yep, that was a dick move by the interviewer.
+Try not to feel humiliated, if anything the interviewer should feel humiliated for not actually giving you a shot (despite you already having proved yourself in the assessment).
+If the HR person ghosted you, whats the loss in telling them about the terrible interview? At best they actually understand what happened and make sure the next candidate (they headhunted) doesnt get the same treatment, at worst they ignore you, as they are doing now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106
+This industry sure has turned weird.
+When did coding become something you could only learn by doing a CS degree? When did every shop start requiring idiotic coding tests? As if clicking the keys were the most important part of creating software products.
+I'm glad I retired. I feel for you kids.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37
+You should absolutely report this interviewer. Their behavior is harmful to the company and to all future applicants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31
+You weren't humiliated because your undergrad is in EE and not CS.
+You were humiliated because you earnestly went in for a job interview and the company sent in a complete ass.
+I know this person who is a fairly renowned in the cybersecurity space, people give talks on derivatives based on her work, famous cybersecurity people tweet her, etc. Coincidentally, she is also Colombian. Anyways, a company got in touch with her and tried to recruit her kind of like this company did with you. This was for a pretty senior position too, not the standard sort of job thing. During her interview, this guy would not stop asking her if she wrote her own code by herself. He didn't ask just once, he kept asking this a huge number of times - he just wouldn't believe it, even though the entire reason she was at that interview in the first place was because she was being recruited for some recent work she did that got famous.
+She said it was due to sexism, and I'm sure a good deal of it was. But at the same time, in my experience, I think there's just a bunch of stupid super not self-aware people in this line of work who are super toxic because they are insecure or think they are a ultra-technical super-guru. It's not enough for these people to feel good about themselves (they usually don't), they have to make others feel bad to feel good. They need to make it a point to themselves to put others down just to feel more sure they are "the best" or at least feel less incompetent, because who can say who is good or not than someone who knows what's up? It's the dumbest thing ever though because if you are "the best" then you don't need to work for a company, and if you're competent you won't pull this shit.
+Just think of how stupid this guy was - "can you really program at all? what are you doing here?", like dude that's the entire point of the interview and instead of doing his job he did this.
+Your degree is fine, expect more situations like this from time to time even when you are experienced and accomplished because even extremely talented people go through this - and by "this" I mean dealing with some idiot who takes an interviewer role as some position of power that can be an opportunity to "be the boss" and "tell it as it is" instead of taking their professional duties seriously and just doing the interview.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is it so hard to change jobs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am getting pretty depressed about it and I feel like coding is slowly losing all the fun it originally had. I do interviews and you never know what to expect. Is it leetcode? Resume quiz? If it’s a take home project, what kind of take home project is it? What are they expecting and looking for?
+The stuff a company could ask is endless and it feels like you have to be perfect or get lucky to land a job. It feels like they are looking for very specific things and if your missing one or two of them then your shit out of luck. The process just kills your confidence too.
+I know there will be at least one person to see this that can’t relate. Please just tell me the secret. How do you do get offers easily? Do I just suck that bad? I work my ass off and have a pretty good portfolio, CS degree and getting a masters in CS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85
+All your questions in first paragraph have a simple solution.
+Just ask the recruiter or whoever contact you. Ask them what kind of interview it is. Ask them the expectation of the take home project.
+If you’re interviewing with tech companies, they should be happy to answer these questions. If they aren’t willing to tell you, it is already a red flag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28
+I don’t know if it helps but I think that grind and feeling is commonplace. I just got an offer to leave my current programming job and that was after so many grueling interview loops with big, small, and even FAANG that I lost count. Some went decent, some were quite bad. I about quit mid interview when some company kept peppering me with Angular specific questions when I was told just knowing Java is fine. So no, you don’t suck. If you have the luxury, I would consider a small mental break to regroup and reevaluate. Let your mind rest.</t>
   </si>
   <si>
     <t xml:space="preserve">14
-It does sound like your employment may be terminated. I'm sorry. It feels terrible, but it won't be the end of the world.
-When reviewing termination packages, please keep in mind:
--Pay in lieu of notice is legally required by the ESA (in most/all? provinces). You do not need to sign anything or agree to anything to be entitled to that money. It is based on years of service as per the ESA (details will be available online). It is not required if the termination is "for cause".
--Severance is payment above and beyond the ESA minimum. It is usually offered in exchange for signing a release agreement so that you cannot pursue any additional legal action against the company. It is calculated based on many factors including: length of service, age, level (manager, executive, individual contributor etc), education, salary, location and is supposed to reflect the amount necessary to sustain you until you find a suitable similar position. A simple calculation people often provide is 1 month per year of service but that isn't necessarily true.
-There needs to be consideration for a contract to be valid (you need to have some benefit) so definitely do not sign anything if they are not offering you more than the ESA minimum, but if you do it is likely not enforceable
-You must be provided time to consult with a lawyer before being required to sign anything
--Cause is very difficult to prove and the onus is on the employer to prove it. Do not be dismayed if they claim for cause, you will have additional recourse. Post again if that happens or speak with a lawyer of course.
-ETA: some of the other advice being offered in this thread is either irrelevant in Canada or the commenter is misinformed (circling things and writing in that you disagree is not good advice). Be careful what advice you trust on the internet and definitely confirm with alternate sources. Everything I've written can be confirmed on various government or legal (Canadian) websites.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25
-You should reach out to your manager and let them know you don't have access.
-If you're terminated, you should go see an employment lawyer about the offer you receive and see what they think. For 8 years of service, it'll be worth at least a consult.
-Not sure how your mat leave impacts anything since it sounds like you came back, moved to a different department, and things just aren't working out. Unless something is specifically said about your mat leave, there's no reason to think that it has anything to do with your potential termination.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4
-Don’t panic and try to find out what happened. If they terminated your employment without notification, fuck them. However, seek to understand and know that it could always be a misunderstanding/mistake.
-Keep us posted.</t>
+If you're having trouble switching jobs then it might be your resume or the confidence you're displaying. You may give off a "I don't know what I'm doing" vibe and doing that unconsciously.
+It's the old thing - "When you know what you know, you realize how much you don't know" and that might be going through your mind.
+So you might be trying to keep new employers expectations low and giving off that vibe of not really being a knowledgable producer.
+Looking for a job is always difficult because you want to be a good candidate but it's often really hard to know what they're looking for so it sometimes seems like you have to be a master of all trades and a newbie at none. But that's not true at all.
+Keep focused on what appeals to you, push yourself to learn those areas where you don't know as much and be sure to put your confidence forward as much as possible....maybe more than you even realize.
+hang in there - something will pop for you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31
+I'm with you dude, I find it incredibly difficult to get offers for all the reasons you specified. I've lost all motivation to apply anywhere else. I'll prob just grind it out where I am at unless they can me. Then I'm really gonna be fucked.
+These people that just get jobs so easily, I hate them with a passion. A lot of the people I work with were like "I had 3 competing offers but I choose to come here" and I'm thinking "mofo this was my only offer".</t>
   </si>
   <si>
     <t xml:space="preserve">2
-Way to stand up for yourself!</t>
+I'm about to graduate, so am not sure how relevant this is to your situation, but I had quite a few interviews and offers.
+I found that for all of the interviews, I was able to get a sense of what the process would look like. If the first stage was an HR screen, I'd ask him/her then. If it was immediately with sometime technical, I'd clarify via email what to expect. No one had any problem telling me what the process looks like. They wouldn't prefer you to interview blind.
+As for the interview content, they all cover one of three things:
+LC
+Take home project
+chat about background/experience
+In 2 cases I had to present a ML research paper I found interesting.
+To your latter question, I think it came down to sending about 80 applications, networking, good people-skills and a healthy amount of leetcode. And a lot of practice. I'd take interviews with companies I had no interest in working with just to get a sense of what they are looking for. I kinda stopped going to class for a month and a half for this process so idk how helpful that is for someone in a different position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever been shocked by how poorly run a major company is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recently been working on a project as a vendor for one of the country's largest companies, and one of the "top" companies in our industry.
+I have been appalled by how horrible their internal processes are. Their Product team seems to have absolutely no idea of their business goals and seems totally disconnected from their development teams. Their development teams seem wholly incompetent and lack the fundamental understanding of what is required for a software integration.
+These are just some basic examples based on my interactions, but it seems insane how a company like this has been able to succeed and grow with such incompetence. It's like we were paired with the "stupid" kids on a school project.
+I previously worked at an extremely large company, and I was nothing but impressed by the intelligence of my peers and the standards of our internal processes. I wrongly assumed every large and successful company would be similar.
+Anyone have some horror stories to share?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233
+Sure have!
+I remember being so impressed when I finished grad school and started working at NORTHROP GRUMMAN. They flew a bunch of us new grads out, gave us a tour, wine/dine/etc. it sure looked impressive. In hindsight my first red flag was when someone pointed out a computer in their lab was still running Windows XP (this was mid 2010s).
+Over the next 4 years, I saw gross incompetence everywhere. Nepotism in hiring/promotions was rampant. The diversity that the company pushed so hard manifested itself in a weird way where various ethnicities were basically confined to sections of the main corporate building. For example, the corner section I worked in was predominately Jewish and all of them came from the same synagogue in NYC. Past our section was the S. Korean one, next was Indian, etc. etc. I heard some pretty nasty things said between the different ethnicities/sections. They all acted like separate and competing companies so needless to say everything was a mess.
+I've since left that company and the industry entirely. 0/10 would not recommend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">403
+The sheer number of companies that rely on a lengthy list of google spreadsheets is shocking to me. Like no one is in charge, oversight is incidental.
+Makes me realize how much work a conspiracy would truly take an how humans just can't manage projects well enough to conspire properly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121
+On a tangent but it's crazy how many companies don't take care of data as they should. Large companies that don't encrypt or hash information they should, keep PII data in plain view with little to no access control, expose their production environments, or generally have incredibly weak security measures in place. I'm honestly shocked we haven't seen more incidents of data breaches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32
+I got a job I was so excited about with a HUGE international telecom company. I interviewed with and had offers from multiple teams at the company and the one I went with had all great things to say. Microservices, NoSQL, working at a huge scale to manage big BIG data. Everything I wanted to do and plenty to learn. Yay!
+Then I started. Our team never got a manager. I spent weeks in meetings for 8 hours per day. I was with this team for SIX MONTHS and was never assigned a single piece of work. My team of 5 engineers was assigned a single microservice to migrate or something and within a day or so that assignment was rescinded for "political reasons". WTF.
+I got an offer pretty soon after reentering the job market -- turns out having that name on your resume, even for 5-6 months, looks impressive lol. My new job is with a comparatively tiny company and I absolutely love it! It was well worth the 6 months in hell to get to where I am now :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74
+Literally every single company. It feels like every company runs on hopes and prayers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70
+I worked for a high growth post-IPO company. The executives had delusions of grandeur. They thought they could just create a prestigious tech company where people would want to join simply because of its prestigious brand. They poured resources into auxiliary work to get tech cred, to the detriment of the core business.
+Employees saw through this. The work wasn't that groundbreaking, and they pay &amp; benefits were insufficient. A company can't grow sustainably with high employee attrition.
+The company's shed its excess and is focused on its core mission. Internal organization is still janky but it's on the right path now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80
+Too big to fail is a real thing, and large old companies are typically disasters internally.
+Companies can hold it together through their growth phase, founder rolling off and selecting a CEO. But once you get a couple of generations removed from founder, then very large companies tend to atrophy into disasters.
+THe best run firms I have worked in are mid sized. The very large firms have all been terribly run.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17
+My company (which is a mega company in the United States) plainly stated they will not adjust wages into the current market after freezing them over all of COVID. Almost every good engineer worth their salt has left, leaving a skeleton crew of almost as many managers as engineers. We have tens of thousands of engineers, so this is truly a mass exodus as it's flat across all teams, everywhere.
+They supplement this with offshore contractors who literally cannot code (because, for example, they have a QA background and there's no one else), the onshore contractors know the reputation our management has so switch out to other projects ASAP. Nobody will apply for full time roles, but when they do, the engineers usually fail the candidates in the interview but management hires them anyways because they are so desperate to maintain management positions when their team has literally no one on it. As you can imagine, these new engineers while trying their best work 60-80 hour weeks because of the insecurity coming from less prestigious backgrounds and still get almost nothing done because they are elevated 2-3 titles above where they should be and expected to perform as such
+This company is the reason why you have internet service and no small internet providers and is launching their own streaming service to boot. I can't see any reality where the software engineering side of this company is not a literal shit show of keeping the lights on and removing features due to being unable to maintain them while an equivalent number of managers congregate in the corner while senior leadership juggle titles. I'm shocked at how good of a scam it is in terms of management siphoning funds via their salaries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior employee keeps instigating drama about pay [IL] [COOK]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have a senior employee that keeps starting rumors about new hires making 16+ when in fact they are just not true as our new hires make 13.50. How do you stop this behavior? Its uncomfortable for new employees and just rude from the senior employee whom is making significantly more anyway. He has done this before and seems to attempt it with any new hire.
+Is discipline necessary? Is this protected by any legalities? How can we stop these annoying attempts to create discontent in our work environment amongst other employees?
+My gut feeling is that this is considered more of an unspoken rule but legally they are allowed to talk about pay per Equal Pay Act or simply by freedom of speech but that most people do not for fear of offending people or being rude.
+Again thank you for any input on this topic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168
+You dont stop the behavior. You just become extremely transparent about pay ranges. "Hi team! I overheard an incorrect starting rate the other day. I've printed the hourly pay ranges for each position, let's look over it together and I can answer your questions."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20
+Not that 13.50/hr is anything to brag about, wages should be openly available. Who is it being hidden from? It is not fantastic or even mildly inticing would be the only reason to hide it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69
+Announce to the whole staff that you need their help finding new hires and the job pays 13.50.
+Done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37
+Discussions about wages and other working conditions between non-management employees are protected under the National Labor Relations Act. It is not legal for you to prohibit or otherwise interfere with such discussions or to retaliate against employees in any way for engaging in such protected activity. If this employee is deliberately lying about other employees' wages just to cause trouble, it's possible the NLRA might not protect him in that instance, but you would still be taking a risk by trying to intervene. You should discuss the matter with your legal counsel before taking any action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19
+You don’t stop him.
+You become more transparent with employee pay. Send an email to everyone stating what starting pay actually is, and how it scales up.
+This employee is trying to do more than stir up trouble, but you’re only seeing it from your/the employers perspective. On his end I’m sure there’s more of it than that, and you can easily meet him and alleviate these rumors by posting pay scale publicly. Now the discussion he is trying to foster can be had truthfully.</t>
   </si>
   <si>
     <t xml:space="preserve">5
-Yes, so first of all, there should definitely be another employee (HR rep/employee) that will be on the call if you’re getting fired. So if you get into the call/meeting and someone else is on it too, probably getting canned. This is policy for most companies (well companies who are smart) because it can protect them from any wrongful termination suits. However, you should absolutely get severance, no question about it. Being on maternity leave within the last year and getting fired within like 9 months is absolutely cause for wrongful termination. You may not have a case at all but from a business owner’s perspective, they’re going to want to protect themselves and guarantee you won’t sue. So they will offer severance and you’ll sign the package basically agreeing not to sue them, etc.. If you’ve worked for them for 8 years, your severance should be minimum 2 months pay (rule of thumb is usually 1-2 weeks for each year worked). I have been in a very similar situation before and I actually got 10 weeks severance and I only worked there for 4 years. Hope this helps and good luck!</t>
+One key issue is that it is not legal to tell them they can't discuss pay. It's different if they are spreading rumors, but you can't prohibit them from discussing their pay. You didn't try to do that and I don't think anyone's recommending it, but some employers have that as their knee-jerk reaction to this type of situation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5
+I wish they'd stop making discussion of pay a fearful or rude thing. Perhaps I'm odd as it wasn't a thing when I had my first real adult job. I was working for a multinational and spend the first 18 months at the home office over in Europe. In your case it would actually aid your case to have employees talk about pay as there would likely be many happy to share the fact everyone starts at 13.50. We also had senior employees insistent new hires were starting at some ridiculous pay rate. We've got a giant sign on the side of the building now plus another by the main time clock and we print it on the new hire recommendation forms that let previous hires get a bonus check if their recommend works past their first 90 days. Management took some convincing but it has worked very well for us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it just me, or is Silicon Valley overrated?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So I’ve been working in Silicon Valley at a FAANG company for two weeks. I was so, so excited to come here and start working for my dream company. At this point, I just feel… disappointed. I’m not sure if it is the area or the company, or just a combination. Nonetheless, I just feel it all to be a bit overhyped. I may be at fault for some of that.
+I find it so odd that quite a few vacant shops/buildings near the campuses of the largest, most powerful companies. I’m pretty unimpressed with the area as a whole. Yes, the weather is nice, but I don’t think that makes the area deserving of such absurd rent prices. At this point, I think I’m just going to get a bit of experience and GTFO. Thank you for coming to my TED talk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48
+Depending where you are, you can also just get promoted within. If I wanted to hustle and smile I could stay where I am and do well with promotions. But I want to have a life and mutter under my breath about how I could burn the whole place to the ground if I wanted, so if I want better pay, I need to jump ship or at least threaten to with an offer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154
+Don't forget the FIRE enthusiasts that realise that working in a high-pressure tech job is a bit draining, and that spending some money on starting a family, taking well-needed vacations, and generally buying nice things isn't such a terrible thing to do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119
+I have close friends working for 4/5 of FAANG (not Amazon) and honestly, even though they get lumped together, it varies a ton across the companies:
+Google + Apple - most people I know who work there actually drink the Koolaid to some extent, whether it's the perks, product they're working on etc. My average Google / Apple friend has been working there for 5-10 years and it's their current company (in many cases their only job since graduating from college). Also Google in particular seems to be easy to transfer internationally after a few years, once youve paid your dues in Mountain View.
+Facebook - they pay a decent amount and seem to have geographic flexibility beyond just making you work in the main office in Menlo Park / Sunnyvale / whatever. But nobody I know actually drinks the koolaid, it's just convenient high paying, and surprisingly technologically interesting work.
+Netflix - pays absolutely crazy salaries but their office is in the middle of nowhere, they supposedly lay off 10% of engineers every year and you work crazy hours. Most common place to actually do "2-3 years then quit for better work life balance" among my friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47
+To be fair, many people do leave. That’s why we’ve seen a huge migration of tech workers to Denver, Austin/TX in general, Raleigh, etc. etc.
+I think it really depends on your career trajectory and family ties. You don’t need to be in the Bay Area to make 300k these days, so if that’s where you max out, might as well leave unless family ties you there. However, many, many people there are making 600-800k and that’s not currently possible elsewhere (with rare exceptions). And the cost of living doesn’t really matter when your HHI is seven figures or nearly so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84
+No fault. You went somewhere, landed a job you were aiming for, and you’ve got a place to be for a bit. That’s a heck of a lot to be proud of. Don’t forget to live a little in this line of work.
+It’s alright. Do your thing, and then go where you need to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212
+SV is basically suburban sprawl. The Chinese and Indian restaurants are pretty good, it's denser than Sun Belt sprawl, but it sure isn't Manhattan.
+For vacancies, the two year WFH has hurt retail and food near the big company campuses.
+Rent is high because almost no new housing has been built in the last forty years. Yeah, there are new apartments, but I doubt all the building between Palo Alto and South San Jose exceeds 10,000 apartments and homes. So of course the market is tight, and many people are well paid, so rents go through the roof.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">558
+Silicon Valley is an extremely boring area. Just a bunch of workaholics making bank. SF would be a more exciting place to live if you swing it.
+Source: Me living in Silicon Valley.</t>
   </si>
   <si>
     <t xml:space="preserve">[MA] Company not informing other employees that multiple coworkers are testing positive for COVID.</t>
@@ -938,37 +1100,6 @@
 Did your company ever implement a vaccine mandate (even if they later took it back) and therefore they know everyone is vaccinated? Current CDC guidelines state that you don't have to do anything if you're exposed and vaccinated. Regardless, they are not legally required to tell you if someone has covid.</t>
   </si>
   <si>
-    <t xml:space="preserve">[CA] is it ok to say the “location” is the reason for wanting to work for a company, in an interview?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is truly the only reason why I want to jump ships. Considerably closer to home. Besides the fact that I’m bored to tears in my current roll and I just need a change. Would I be ok if I say the main reason is for location? Or is that a turn off?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13
-Wanting a significantly shorter commute a very valid reason for wanting to change jobs.
-Btw don't mention the "bored to tears" part lol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7
-I’d say location and the need to grow/expand is quite alright. Having someone local is much preferred over the risk of relocating someone, and they may not realize you’d be working closer to where you live! If you’re a good candidate, I’d say it’s an excellent fit!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7
-The follow up question for any good interviewer will be "Why here, specifically, instead of one of the other hundreds of businesses within a one mile radius?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2
-That's absolutely a good reason for wanting to work somewhere. It's beneficial to us to have you close, it lessens call ins for transportation issues in my experience.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
-I think location should be seen as a bonus, not the main reason. In an ideal world, it shouldn't be an issue, but you want to make sure they don't think that you're only applying for convenience reasons and not because you're excited about the opportunity to develop new skills and experiences.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
-Absolutely valid and a good thing to say when asked during an interview</t>
-  </si>
-  <si>
     <t xml:space="preserve">[TZ] How do I make my supervisees more accountable?</t>
   </si>
   <si>
@@ -998,44 +1129,56 @@
 You catch more flies with honey.</t>
   </si>
   <si>
-    <t xml:space="preserve">Senior employee keeps instigating drama about pay [IL] [COOK]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We have a senior employee that keeps starting rumors about new hires making 16+ when in fact they are just not true as our new hires make 13.50. How do you stop this behavior? Its uncomfortable for new employees and just rude from the senior employee whom is making significantly more anyway. He has done this before and seems to attempt it with any new hire.
-Is discipline necessary? Is this protected by any legalities? How can we stop these annoying attempts to create discontent in our work environment amongst other employees?
-My gut feeling is that this is considered more of an unspoken rule but legally they are allowed to talk about pay per Equal Pay Act or simply by freedom of speech but that most people do not for fear of offending people or being rude.
-Again thank you for any input on this topic.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168
-You dont stop the behavior. You just become extremely transparent about pay ranges. "Hi team! I overheard an incorrect starting rate the other day. I've printed the hourly pay ranges for each position, let's look over it together and I can answer your questions."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20
-Not that 13.50/hr is anything to brag about, wages should be openly available. Who is it being hidden from? It is not fantastic or even mildly inticing would be the only reason to hide it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69
-Announce to the whole staff that you need their help finding new hires and the job pays 13.50.
-Done.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37
-Discussions about wages and other working conditions between non-management employees are protected under the National Labor Relations Act. It is not legal for you to prohibit or otherwise interfere with such discussions or to retaliate against employees in any way for engaging in such protected activity. If this employee is deliberately lying about other employees' wages just to cause trouble, it's possible the NLRA might not protect him in that instance, but you would still be taking a risk by trying to intervene. You should discuss the matter with your legal counsel before taking any action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19
-You don’t stop him.
-You become more transparent with employee pay. Send an email to everyone stating what starting pay actually is, and how it scales up.
-This employee is trying to do more than stir up trouble, but you’re only seeing it from your/the employers perspective. On his end I’m sure there’s more of it than that, and you can easily meet him and alleviate these rumors by posting pay scale publicly. Now the discussion he is trying to foster can be had truthfully.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5
-One key issue is that it is not legal to tell them they can't discuss pay. It's different if they are spreading rumors, but you can't prohibit them from discussing their pay. You didn't try to do that and I don't think anyone's recommending it, but some employers have that as their knee-jerk reaction to this type of situation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5
-I wish they'd stop making discussion of pay a fearful or rude thing. Perhaps I'm odd as it wasn't a thing when I had my first real adult job. I was working for a multinational and spend the first 18 months at the home office over in Europe. In your case it would actually aid your case to have employees talk about pay as there would likely be many happy to share the fact everyone starts at 13.50. We also had senior employees insistent new hires were starting at some ridiculous pay rate. We've got a giant sign on the side of the building now plus another by the main time clock and we print it on the new hire recommendation forms that let previous hires get a bonus check if their recommend works past their first 90 days. Management took some convincing but it has worked very well for us.</t>
+    <t xml:space="preserve">Manager told me it's "not a good look" that i'm taking PTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I started a new job 2 months ago. It's my first dev job. I have accrued a few days of Paid Time Off thus far. Catch is, at my company the PTO does not roll over to the new year. It's use it or lose it.
+So I scheduled to take some PTO the week of Christmas, just to use up my days. Why not right? Well, my manager told me that it was a "bad look" for me to be taking PTO 2 months into the job, and that I had no need to take it this early. Now i'm worried about how i'll do when annual reviews come. Did I screw up?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3800
+lol no you did not screw up. That's definitely a bad sign regarding company culture. At my company they're practically begging us to take PTO if possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300
+My company actually gives you a bonus if you take a certain amount of time off AND do not log in the whole time you are away.
+It sounds bonkers but they adopted it after reading these studies about how the first few days of vacation you are just recovering from being so busy all the time, then you have a stage where you panic because you don't know how to live your life without work, and finally in stage three do you finally relax and your body recovers. Once they embraced that, they adopted the bonus system so people can't sneak in a quick peak (and ruin the health effects of a longer break).
+The result? People don't leave my company. We are pretty loyal because we know that there are these big long vacations waiting for us, plus extra time for the odd day off here or the long weekend there. They save so much money in HR recruitment because we usually only hire due to growth, not due to attrition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">476
+Your manager sounds terrible. They don’t know your life. Who are they to say whether you “need” it or not? They expect you to just waste your PTO? No you didn’t screw up. Your manager is showing their true colors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">721
+If there was a screw up anywhere, it was the part where you took the job, but that's not important right now. Your manager is a clown and more than likely this job won't last you long enough for "a bad look" to matter (I mean because you will find a better place, not that they will fire you). Get your money, get your experience and use it find a job somewhere where they don't say dumb shit like its a bad look to take vacation over the biggest holiday of the year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88
+If I were you, I wouldn't give a shit how I look when the annual reviews come. Because I'll have already quit and be at my new job long before that happens.
+WLB is my #1 priority in life, so denying PTO (or saying taking it is a bad look), is the reddest of red flags for me.
+Use this as a lesson for questions to ask about during the reverse-interview process when looking for your next job. Ask questions about work life balance, culture, PTO policies, etc. This kind of thing should've jumped out at you right away if you asked about it.
+Take the vacation.
+At my previous company I started the Monday after Thanksgiving break. So in December I had &lt;1 month on the job. You bet your ass I took 4 days of vacation in December to combine the Christmas and NYE holidays.
+Nobody cared. They encouraged it. They would've been more concerned if I hadn't taken that time off. Why? Because almost everyone else at the company took that time off. It doesn't matter that I've only been there less than a month... I'm a human being, that takes human amounts of vacation.,
+Basically the same deal at my current company. Also started in mid-November, and have 2 days requested off. Nobody cares. In January I'm requesting 3 more days off.
+A part of a good culture is being encouraging a healthy work life balance. Saying it's not a good look that you want to enjoy yourself over the holidays with your friends and/or family is disgusting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25
+Lol I started a new job recently and it just happened that I had appointments to get deep scaling done on my teeth in my second and third weeks on the job.
+At first I was worried I might get shit for taking off so soon after starting. Then I thought uh, my life doesn't stop because I start a new job, I'm not even think about putting dental work on hold to appease an employer. If they didn't like it, fuck 'em.
+Turned out they didn't care are all and actively encouraged us to do whatever we need to do. Lucky me, I guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21
+Lmao wtf? You earned that PTO. Unless there is some critical work that you are desperately needed for there is absolutely no reason why you can’t take that PTO. Even if there is it’s a bad look for your manager to demand that work be done on Christmas week 🙄 Your manager is psycho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18
+If you go to HR like other people are telling you they're just going to rat you out to your manager. You may be able to take the time off, but guess who is now on someone's shit list?
+Your manager sucks, you are completely in the right. Start looking for a new job, this place is only going to get worse if this is how they are treating you from the start.
+If anything they did you a favor by showing you their true colors so early. You don't want to work for this company.</t>
   </si>
   <si>
     <t xml:space="preserve">CA] Female. Was demoted after months of complaining of sex discrimination as recent as just a day ago.</t>
@@ -1084,65 +1227,49 @@
 “Terms and conditions” include but are not limited to things like your job responsibilities, work hours, dress code, vacation and sick days, starting salary, and performance evaluation standards. "I’m always left out of meetings, given simple or no tasks at all. Given tasks and reports when no other supervisor is asked to do so." " Friday, I was demoted. Due to “inexperience and lack of leadership skills”. Believe it or not various types of discrimination can be a pretext for retaliation for employment complaints and or an intent to terminate.</t>
   </si>
   <si>
-    <t xml:space="preserve">HR wants me to rat out my coworkers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello,
-In my workplace, there are regular memes that get circulated. I don't send any. I might show one or two employees in person what I'm laughing at. A few of these memes are explicit.
-I have since been reported by a female employee because she caught me showing a meme to one of my coworkers.
-I was asked to sit down with corporate HR and I was interrogated almost as if I were interrogated by police as a suspect for a crime.
-Anyway, they had a good cop/bad cop strategy. First hitting me with the good cop. A female asking me asking me simple questions. After that didn't work, they transitioned to a bad cop strategy where the guy was trying to berate me and saying the individual that reported me received dick pics and asking me why I sent those, saying it's gotta be me because it matches my "skin tone". (I'm olive skin toned). Then when I said it wasn't me, he attempted to berate me and repeatedly said, "it's got to be you, or you're just someone who has pictures and videos of other guys' penises on your phone". He repeated "you have other guys penises on your phone" over and over. I couldn't even get a word in. Almost as if somehow that would be a bad thing?
-Through this whole thing they kept emphasizing that it could be my employment status if I don't answer all of their questions or that I'm not truthful.
-I've been put on leave with pay thus far. I've emailed examples of the memes being sent per their request, but now they're asking me exactly who is involved.
-​
-I have no idea what to do. I do not want to rat out anyone.
-Just to emphasize, I do not make the memes, I just receive them. I might show them to a few people at work, but that's all.
-​
-TL;DR: I'm getting in trouble for memes i showed to a coworker, I did not create any of them, and I'm now being accused of sending dick pics to a female employee. My work wants me to rat out my coworkers, but I don't want to.
-​
-What do I do? Should I seek a lawyer?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10
-A good lawyer will tell you to give them what they want.
-You're already in deep shit, and rightly so. Your only way out is to do the right thing.
-"I might show them to a few people at work". FFS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13
-There's a lot to unpack here so let's start from the beginning. You're in the wrong here. Showing explicit memes to your coworkers was unprofessional and the fact that you didn't create the meme doesn't change that. I can't answer anything about the explicit photo that was sent, but I imagine the employee who received it shared the phone number of the person who sent it. I don't know why HR would think it was you.
-As far as the rest of the investigation goes, you can be disciplined for failing to participate up to and including termination. I get not wanting to rat people out, but we're adults not a bunch of elementary school children bound by some playground omertà. As for consulting an attorney, I always encourage employees to take whatever step they feel necessary to make them comfortable. But just know that HR doesn't have to talk to your attorney or allow him or her to attend any meetings they have with you. You're the employee and your attorney is just a stranger to them.
-Based on what you've written here, if I were the HR guy investigating this case I would likely recommend termination. You have not acknowledged any wrong doing on your part, you show no remorse for your actions, and you're unwilling to answer questions for fear of being a rat. The fact that you've been sent home is an indication of just how seriously your employer is taking this incident. I would not be surprised if your time there was short but at the very least I'd expect a serious warning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19
-Well…
-You should be in trouble for showing explicit memes at work. Doesn’t matter if you sent them, you showed them.
-Should you rat out your coworkers? Eh… a couple of ways to think about it.
-Doesn’t matter if you do or don’t, you’re busted. Ratting someone out won’t make your issue go away. So keep your mouth shut.
-On the other hand… ratting someone out will keep the issue from being perpetuated in the work place. You telling someone may save someone else from being offended or hurt or otherwise.
-I vote for #2 - help keep it from happening to others in the future.
-And stop showing dumb shit off at work. This is what happens - you are the only one to blame.
-And the “bad cop” - what a tool… you should have said “yeah I have penises on my phone… you must want to see them”
-Edit: oops - don’t get a lawyer, get another job and grow up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5
-This is enough to get you fired. If you want to have any hope of keeping your job, you should cooperate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14
-So interesting all women in this story are "female" but the men are "guys.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3
-It doesn't matter how little you perceived the sharing of memes. That fact that an employee 'felt' it was sexually inappropriate is enough to get you disciplined, possibly termination.
-You own up to your aspect, explain you were not posting or sending or hanging out leaving out for others to see. Be adamant about the things that are not true. They don't need to prove it was your DP, this isn't a court, be professional if they are trying to pin something on you that isn't true. If You have a bad attitude they could just cut you.
-You could tell them who you shared the meme with to confirm your story.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3
-The only way you can look after your own best interests here is to get another job somewhere else before they fire you because more than likely they are going to fire you, and there is nothing you can do about it (assuming non-unionized, private sector job in an at-will state in the U.S.).</t>
+    <t xml:space="preserve">You all think Twitter working conditions will be the same as Tesla if Elon Musks buyout is accepted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Companies ran by Elon musk have quite the reputation in the industry to say the least of poor working conditions and long hours. Personally I know a handful of friends that have worked there and have said this is 100% true and it's because of Musk and his 'expectations'. Now that it's looking like a twitter buyout is highly likely, do you all think Twitter devs will be forced to adopt these kinds of conditions?
+Edit: Sorry just seen that it was accepted so little change from the title, I guess the question is now completely focused on how it will effect working conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">423
+I took a recruiter call from the Boring company and they wanted me to take a ~60% paycut and work twice the hours.
+Hard pass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310
+Working conditions would change drastically.
+For one, half of the compensation would be locked up as paper money. This would be a much bigger deal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">996
+Things will absolutely, without a doubt, change.
+Twitter is a stagnant company, and essentially has been since it’s inception. The reputation is that their engineers basically sit around and do nothing. The stock price has done pretty much fuck all since it went public almost a decade ago. There’s been zero innovation. Their ad tech is really bad given how long the company has been around. They still have a ridiculously bad bot problem, and it’s kinda astounding that they haven’t developed a better solution to keep it in check. In short, Twitter has been a mismanaged company.
+Conversely, Elon’s companies are run like sweat shops. WLB is bad, and Elon is constantly overpromising and then working his employees like cattle to try to get them to deliver.
+I expect much of the company will be gutted, and the day-to-day working conditions for people that stick around will absolutely change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">261
+As someone who worked at Tesla, anyone who works at any company ran by him has an extremely high chance of being severely disappointed and worked to death.
+The work is built to such a point that any and all human functions are regulated to assembly line procedures in order to meet the high publicized demand, as he is a numbers man and is focused on results first with little regard for casualties sustained and a burnt out workforce.
+Not to mention the mental health factor and the pay. The pay can be god-awful. And being driven to the point of daily mental breakdowns, panic attacks and tumultuous depression.
+Just my opinion. But chances are, it won’t fare many changes for the better as opposed to what it is now and what will be expected as usual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53
+A lot of big RSUs are going to be paid out, which means a lot of golden handcuffs are coming off. There’ll be a small exodus before the ink dries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49
+I might be in a good position to answer this. I know multiple people that have worked and interned for different engineering orgs within Tesla (across Sunnyvale, Palo Alto, and Fremont). Although it varies by team, about half the teams seem to have surges of overtime work. Elon's lack of discipline runs throughout the company so priorities can shift quickly (and sometimes by tweet!). Some teams are very close to him, which is a lot of pressure to keep up with his whims. Retention is also poor. In the midst of all this is a lot of cool technical innovation that is both driven by Elon's desires, while also being hindered by his roaming attention and lack of discipline. A friend who interned at SpaceX had similar things to say, but fortunately had farther distance from Elon. This all matched with my impressions when I interviewed for a software position at Tesla last year.
+I also talked with a senior dev at Twitter and did an interview last year. Contrary to what other people are saying in the thread, Twitter has great engineering and employees. You can check out their technical blogs to see what I mean, but to summarize: their operations at scale, high-volume data pipelines, consistency across sharding, focus on minimizing latency, and high uptime numbers are very impressive. They seem dedicated to making their core services work great, and had a clear vision about becoming a stable business supported by consistent revenue streams such as advertising. (Sorry if this all sounds a bit buzzword-y.) Their innovation is being a quietly good social network that avoids Facebook's PR disasters (and Zuck weirdness), keeps working all the time, and is fast enough to stay "on the pulse" of everything.
+I got a very positive impression of Twitter, and believe that it will change a lot with Elon at the helm. I think Twitter will follow his other companies and have both higher highs and lower lows. I assume most Twitter employees will hop off that roller coaster at some point as churn sets in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20
+I expect a lot of people will quit, and I think that'll facilitate a change in work culture. Like others have mentioned, I'm not sure that twitter didn't need a bit of shake up, but I'm not sure that it'll be a super desirable place to work for any but Muskovites.</t>
   </si>
   <si>
     <t xml:space="preserve">Is it considered job-hopping if you keep getting pay increases/title bumps? [NC]</t>
@@ -1195,35 +1322,6 @@
     <t xml:space="preserve">3
 Sometimes all they want is a hired gun. Other times they want an invested leader. Could become a red flag eventually no matter how you spin it in an interview.
 Think about it like this: you interview with someone that's been with company 10 years. They see you've never stayed anywhere longer than 1.5 of 2. They will recall how many people like you they've churned through and/or been burned by.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[CA] Forced to use pronouns on business cards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I requested business cards internally at my company. I was sent the proof prior to the order being placed, and saw a section for pronouns filled out as “he/him”. I asked for the pronouns to be removed, but they weren’t.
-Can my employer assume my pronouns and force me to have them on my business cards? I do not publicize my pronouns which means my company assumed my pronouns for me without my approval.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14
-The problem with “forced pronoun identification” isn’t about whether or not someone wants to share their pronoun, it’s the “forcing” of the pronoun on folks who may be struggling with their identity and then choose to conform to standard gender pronouns because they aren’t ready to identify otherwise.
-Now - one may be officially recognized under a set of pronouns that they don’t identify with, but chose to go with because they were forced to and weren’t ready to share their choice.
-Bad form all around - blind “culture” to look cool.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7
-Is "Refuses to identify" a pronoun? What exactly do you want people to call you? Must people only and ever use your name when referring to you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6
-do the pronouns on the cards match your personal identity ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
-Yes they can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
-Yes and yes. Your company can choose what information is included on business cards for their business. You aren’t being “forced” to use pronouns; everyone uses pronouns.</t>
   </si>
   <si>
     <t xml:space="preserve">Is anyone else bothered when they hear "HR is there to protect the company, not the employees"?</t>
@@ -1279,50 +1377,290 @@
 I think a lot of people in this industry get jaded because there are so many people out there that take advantage and wear on you. I still believe that those people are a small minority. But it's super easy for an employee who is terminated to say "THEY TERMED ME FOR NO REASON" or some sort of response, and we being logical professionals have to sit back and listen to all the stupid bullshit people make up because they can't admit that they made mistakes. It starts wearing on you after a while but I still try to look at the upside and still remember that I have a few bad apples but most of my employees are amazing and make my job fun and worth it.</t>
   </si>
   <si>
-    <t xml:space="preserve">[MI] Coworker Help!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I work for a local insurance agency. My dad has owned it for almost 25 years. It’s a small office of four employees, but we service a great deal of people; many of which are local and lower income families or young families. We pride ourselves on doing right by our customers, many of which are not white. One of my coworkers, who has been here for nearly 7 years and for the most part has been a good employee, has taken a turn for the worse. Unfortunately, my father is a non confrontational person and has a hard time with harder talks with people.
-This employee refused to wear a mask during covid. My father didn’t make a big deal out of it, as we weren’t having customers in the office. Myself and the remaining coworker complained a bit, but kind of accepted it as “it is what it is”. It sucked, but I kept my mouth shut for my dad. Recently, things have gotten bad. She has been blatantly racist on a few occasions. I’ve called her out a few times and asked for her to keep those opinions to herself, but without any success. I’ve tried to put my headphones in and just do my job, but I can’t anymore. This behavior is so inappropriate. But, she’s been here for a long time and is practically family to my father/boss. I’ve voiced my opinion to him politely for a while, but I need some change here!
-How the hell do I go about this? I’m ready to flip the hell out, but I know my boss/dad won’t want to fire her. Compromise would be great, but how do you compromise with that behavior?!
-Any advice would be great. I made this post so I could reference it if it comes to that when I talk with him.</t>
+    <t xml:space="preserve">Scrum Master wants to visit each member of the project at home "in order to understand the work from home experience for a developer."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She just told us in our daily standup that she wants to visit each member of the project at home in order to give advice on how to rearrange the interiour for more productivity, wants to talk with family to identify distractions and wants to sit right next to someone in order to see working from home. What should I do? That sounds really uncomfortable to me because I'm quite introverted and I don't think that this will help me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2300
+The solution is simple, but the situation is absurd to begin with.
+You respectfully and calmly say "I appreciate your interest in helping with workspace advice and improvements, but I'm not comfortable with a home visit, thank you."
+Of course it's invasive, absurd, etc but you don't need to dig into that with the SM. Just say no, then mention something to your manager.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">518
+That sounds like a hard “no”. Also, violates the entire idea of sending everyone home to begin with. One person visiting everyone on the team just means that if anyone has coronavirus, everyone after them in the visit list will also get exposed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213
+That is not only invasive, but incredibly inappropriate. It flies directly in the face of “social distancing” and puts everyone who she visits at risk.
+Even before the pandemic I’d never heard of anyone doing that for remote work.
+That is a hard no, and you should be consulting with Human Resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">497
+I think she's trying to be helpful but especially the "talk to family" bit is incredibly invasive.
+I don't know if this is an option for you, but my response would be "heck no". Maybe as an alternative offer to send some pictures from your work area?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42
+Crtl-c cntrl-v.
+Thank you for your offer to come help organize my workspace, perhaps a more efficient use of time would be to have a virtual training on creating a productive at home work environment. I'm happy to give you a virtual tour of my work space.
+I cannot let you visit my home office because this would be a health risk to me, my family and yourself and additionally violates government health guidelines.
+Additionally requesting to speak to my family is inapproperate and a violation of our privacy.
+If you feel a home visit is necessary please consult with HR I've cc'd them on this email.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[CA] Forced to use pronouns on business cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I requested business cards internally at my company. I was sent the proof prior to the order being placed, and saw a section for pronouns filled out as “he/him”. I asked for the pronouns to be removed, but they weren’t.
+Can my employer assume my pronouns and force me to have them on my business cards? I do not publicize my pronouns which means my company assumed my pronouns for me without my approval.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14
+The problem with “forced pronoun identification” isn’t about whether or not someone wants to share their pronoun, it’s the “forcing” of the pronoun on folks who may be struggling with their identity and then choose to conform to standard gender pronouns because they aren’t ready to identify otherwise.
+Now - one may be officially recognized under a set of pronouns that they don’t identify with, but chose to go with because they were forced to and weren’t ready to share their choice.
+Bad form all around - blind “culture” to look cool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7
+Is "Refuses to identify" a pronoun? What exactly do you want people to call you? Must people only and ever use your name when referring to you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6
+do the pronouns on the cards match your personal identity ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+Yes they can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+Yes and yes. Your company can choose what information is included on business cards for their business. You aren’t being “forced” to use pronouns; everyone uses pronouns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[CA] is it ok to say the “location” is the reason for wanting to work for a company, in an interview?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is truly the only reason why I want to jump ships. Considerably closer to home. Besides the fact that I’m bored to tears in my current roll and I just need a change. Would I be ok if I say the main reason is for location? Or is that a turn off?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13
+Wanting a significantly shorter commute a very valid reason for wanting to change jobs.
+Btw don't mention the "bored to tears" part lol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7
+I’d say location and the need to grow/expand is quite alright. Having someone local is much preferred over the risk of relocating someone, and they may not realize you’d be working closer to where you live! If you’re a good candidate, I’d say it’s an excellent fit!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7
+The follow up question for any good interviewer will be "Why here, specifically, instead of one of the other hundreds of businesses within a one mile radius?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
+That's absolutely a good reason for wanting to work somewhere. It's beneficial to us to have you close, it lessens call ins for transportation issues in my experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+I think location should be seen as a bonus, not the main reason. In an ideal world, it shouldn't be an issue, but you want to make sure they don't think that you're only applying for convenience reasons and not because you're excited about the opportunity to develop new skills and experiences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+Absolutely valid and a good thing to say when asked during an interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what do I tell the team lead when I can't solve the given task on my own?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I cancelled my plans and tried to solve it in the weekend. tried everything on the internet but still there are bugs in my code. I'm in my probation period so I am scared if I tell him I couldn't solve it he would take it in a bad way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63
+Just be honest, say you can't solve it and ask for some guidance. If you get fired then fuck that trash company and find a better one. Canceling your plans and working over the weekend is bullshit, if this is what you're going to do every time you run into a wall, you're going to become depressed af.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55
+As a senior, that has also been a team lead multiple times I don't want people working overtime if they're stuck. I want them to use their team and me to get their tasks done (I've heard rumours that there's no "I" in "team").
+The easiest way to lose my trust is to not communicate when you're struggling and trying to cover over it, or obfuscate the truth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17
+It’s better to ask for help than to spin your wheels and not say anything. But there is one very important thing you must do when you ask for help.
+When you ask, be sure that you bring a detailed list of all the things you tried, and what the results were. Provide as much detail as you can while still being concise.
+This is a critical step because it shows you gave it a serious try, and aren’t resorting to others at the first sign of trouble. It also demonstrates that you value the time of the person you’re asking. If you ask for help this way, not only will people not get mad, they will be glad that you are taking measures to unblock yourself in such a thoughtful and structured way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7
+In my experience you’re more likely to get in trouble if you DONT say anything when you’re stuck. I have several years experience, and I still ask senior devs on my team questions all the time. After I’ve been stuck on something for a while, it becomes a time sink, especially when a 2 minute slack conversation can get me back on track. It only becomes a problem if you’re not learning and retaining anything IMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+Don't say you can't solve it. Make a list of the things you've tried and what you looked into to try to solve it. Say that you think you're going down the wrong path and would greatly appreciate any advice. Often what a senior engineer is doing is just a rubber duck sort of Q&amp;A. What have I tried? Why isn't it working? What can I try next?
+Good luck!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
+Just let your lead knows that you are unable to solve it and need guidance. Also, voice out such matter in the morning stand up (if there is any) and simply ask that you will need some senior’s guidance. There’s nothing wrong with asking for help and seniors in general are willing to help a junior out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
+Like many said already, be honest. Ask for help. Nobody can know everything. I have 30 years in IT and I still learn from juniors as well as seniors. If they expect you to know everything, they might be the problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+Worked for a company that was ambiguous about whether you needed to ask for help or demonstrate superior problem solving abilities. It lasted 6 weeks as they decided that contractors were too expensive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I sent resignation in and they made the day I sent resignation in my last day, does that mean I got fired ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36
+For the purpose of how you talk about this with future employees, you resigned. In some states you could become eligible for unemployment as a result.</t>
   </si>
   <si>
     <t xml:space="preserve">22
-Nothing you can do if he doesn't care to take action. You are an employee in this scenario not his daughter. He doesn't seem to care that one employee is causing problems and that it is causing concerns for other employees.
-Your options are limited to raise it to him and hope he acts, quit, or live with it.</t>
+No. They simply eliminated the notice period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46
+[Tx] you sent your resignation. The employer has three choices in Texas: accept your terms and you work for two weeks, ask you to stay for an agreed upon period other than 2 weeks or they can say your last day is the day you submit your resignation.
+This is still a resignation, not an employer termination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23
+TX is an “at will” employment state. No, it does not mean you got fired. It just means that your employer is choosing to terminate your relationship earlier even though you’ve given advance resignation notice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7
+Are they still eligible for unemployment during the notice period?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3
+Are they paying you through the whenever you proposed would be your last day?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
+Not fired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PA] I cried at work 5 years ago when I reported workplace harassment and now I am blacklisted for a promotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150
+I'm really sorry this happened to you, but I'm confused about why you still work there. 17 years and 7 promotions you didn't get. They very obviously do not have any desire whatsoever to promote you. They have literally told you that 7 times.
+You should be looking for your career growth at other companies, not at this one. You aren't going to get promoted and I don't know how much more explicit your current employer could possibly be about this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115
+If you're blacklisted, it's probably not going to be reversed, and to be frank, do you want to work for a company that would blacklist you for crying?
+If you were going to get a shot, it probably was going to happen by now. I'd move on to a company that isn't like this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40
+If people don't want to promote you - you aren't going to get promoted. I'd find another job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28
+Is there an actual question?
+Echoing others. You’ll never be promoted there. That ship has sailed. Move on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57
+You were there for 17 years and got passed over for promotion 7 times. By the 2nd or 3rd time around you should have left. You definitely don’t need prior supervisor experience to be a supervisor…. It’s a chicken or the egg situation. How do you get experience for a position that requires that exact experience before you can get it?
+Any good manager would have helped you create a career development plan with specific goals and milestones that would end with a promotion in a specified range of time.</t>
   </si>
   <si>
     <t xml:space="preserve">11
-Ugh, I feel for you. Unfortunately your dad is putting his business and reputation at risk by keeping someone around who freely expresses their shitty racism. This coworker has the ability to destroy the company’s reputation if they ever let some racist thought slip out, and the more comfortable they are using those words, the more likely that is to happen. Maybe you can show your dad some articles about businesses that have been damaged by employees like this because at some point they could say the wrong thing and an interaction goes viral and that’s it. It will be too late to fire the coworker as the damage will be done. Maybe if you frame it like that you can inspire him to at least speak to this employee.</t>
+It’s time to move on. Just by finding a new place of employment in your current level position, I’d bet you could start at the salary the supervisor position at your current employer would pay you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33
+There's more to this story.
+So, you are approaching promotions like they are some logical choice. They aren't.
+When hiring, there are two kinds of bias: the bias of the people being selected (who they like) and the bias which arises from the perosn being selected (what the candidate gives off).
+Neither of these things are in any way related to technical knowledge, experience, ability, qualifications or fit.
+So, likely you aren't "blacklisted". The probability of an actual list is almost nothing.
+More likely, you are considered painful by the people you work with. You're emotional, entitled, don't understand the politics and are probably not trusted with being able to manage things smoothly - with yourself or others. This is not even touching on your work product (in other words, lets assume your work product is fantastic).
+You also show something which has been an automatic turnoff for me: entitlement. If a staff member acts entitled to anything they generally go to the bottom of the pile.
+When your management get all these applications for you to move up, they like other people better because, simply put, they don't like you/trust you/want you.
+But you're not leaving. You are (stubbornly) staying and applying and complaining when you don't get the role. You aren't reading the room. The room is saying "We'll employ you but we aint gonna promote you". ou are responding with PROMOTE ME. They say NO. You YES AND DONT PROMOTE THEM AND YOU DID PROMOTE THEM WHY WHY WHY.
+What can you do about it at your current workplace? nothing.
+What can you do at another workplace where they don't know you and you don't have this dynamic? A lot probably. Especially if you get some really good references for the people who DO like and trust you at work.
+So, move on, stop banging you head against the wall, and stop being the kind of person who bangs their head against the wall and then compains about the pain.
+Good luck - because I wrote this with a lot of empathy for you even though it sounds harsh. You're not going to get promoted where you are - and it isn't them (look - they promoted Norm). It's you.
+Gold! Thanks kind stranger!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9
+I wonder if the issue is exhibiting emotional responses to business situations. As a supervisor, there will be many situations in which one might have to put emotion aside to make good decisions.
+But, as others have said, there are no promotions at this place for OP. They should look for new opportunities elsewhere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MN][CO][KS] Should I send this email to HR?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58
+First, don't write a letter to HR on behalf of anyone unless you're in a union. You have no authority to act.
+Moreover, it is more effective for them to get 40 emails from 40 different people expressing their personal views than someone "who is acting on behalf" of the nameless, faceless people who aren't complaining and may or may not exist.
+The way to handle this *well* is to have a series of people (about 10 is a good number) inquire separately and through HR recruitment where the ad was for *this* particular hire, or what the process was as they were interested in the position. They have to be people somewhat qualified for the position. Not just randoms.
+Finally, in exit interviews when people leave they should indicate this is par tof the reason why they are leaving and note the better position they are going to. After they leave they should encourage others to get "promoted out". Also mention this in other fora: staff surveys, staff town halls, etc.
+What you are proposing to do won't only lead to nothing positive, it will probably reinforce your manager's argument that there isn't anyone under them with the maturity and professionalism for a higher position unless they have been personally annointed by his majesty.
+Edit: thanks for the gold!
+Edit 2: this isn’t what HR will tell you but it’s what they are thinking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27
+BRB gonna pop popcorn for the dumpster fire that this email will inevitably lead to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9
+Has anyone tried talking to him? There may be valid reasons why this is happening, or they may be completely invalid - I'd want his perspective.
+In any case, don't send that email. It's very accusatory and uses some strong language, and it will paint you as a troublemaker, and you may end up having management...not pleased with you. It's better to inquire vs. accusing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10
+If you have a chance at a job, someone will tell you about it. That's how it works. You aren't missing out because they aren't posted, you are missing out because you are not a candidate.
+Favortism is not illegal. It's just a word people use when someone else gets something they want. People promote people they like. If this was brain surgery, you'd have to pass boards and complete a fellowship. It isn't.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+I have a sincere question.. have you and the others not chosen personally let the DM know that you are interested in growth opportunities? Have you provided your own resume or are you all sitting back and waiting for a job posting? (It might not be favoritism as much as it is the others being proactive rather than reactive).
+That said, it's going to depend on company policy on whether jobs need to be posted to all (remember that takes extra time and effort and if the DM already has employees asking and interested, the easiest path will be to pick someone who has already reached out if they have good job performance).
+Have you spoken directly to the DM about this situation? You claim fear of reaching out but have there been actual instances where you have and it's been a negative interaction?
+I'd be very careful about the last sentence....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5
+Just look for another job. At the end of the day you will be the fall guy and pure office entertainment because the “on behalf” people will be crickets 🦗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+do you have an ethics hotline?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR question - Can my boss fire me for performance issues if I have medical issues?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10
+Given than PA is an at-will employment state, he can terminate you without cause. What we CAN'T do is fire you because of being a protected class. Mental illness is considered a disability and therefore a protected class but that would require a diagnosis I believe. The ADA also states that the employer must provide 'reasonable accommodations' if you are indeed disabled. The challenge for you is that it sounds like a) you don't have an official diagnosis of mental illness and b) even if you did, you didn't share it with your employer to allow them to provide you reasonable accommodations.
+If he intends to get rid of you, they will probably just go the route of enacting their rights under your at-will employment. He sounds like a real shit but given the current job market, I'd consider looking elsewhere if I were you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+Dude, I’m sorry. That’s awful. You could talk with your doctor and see if they would support pursuing an ADA reasonable accommodation while you transition off the meds. That being said, what would the reasonable accommodation be? You would need to arm yourself with what you’d want to be accommodated. Things like extra time to review documents/complete work, how you want your boss to communicate with you, etc.
+This would be a thing to bring up to HR too. “I approached my boss about this, this is the response he gave. What are my next steps, I have medical documentation.” Pursuing a reasonable accommodation through the interactive ADA process may be an option, but again, you need your doctor to provide documentation/support and you need to be able to state what you think the accommodations should be.
+TBH, I would also brush up your resume and look elsewhere. I know that sounds shitty. Is this a manager you’d want to continue working under, though?</t>
   </si>
   <si>
     <t xml:space="preserve">7
-One other element might tip the scales to prompt corrective action. Her biased misconduct sooner or later will affect customer relations, could cost loss of business and could result in bad publicity to the agency. perhaps actions that affect the bottom line might prompt dad to deal with the issue.
-2nd alternative, could you propose an agency expansion opening a second office in the next community in which you would be the branch manager -agent in charge?
-3rd option, you know the business now, set up your own shop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9
-Well dad's not going to fire you, so how about if every time she pulls this you publicly shame her. Sign her up via email for a bunch of diversity and inclusion newsletters, pepper the walls with posters and stuff for BLM or whatever group she's targetting, every time she does something send an email to all 3 other people to say this behavior will not be tolerated. If your dad's going to punk out about it, make it so uncomfortable that she either quits her racist ass shit or dad has to pick between the two of you.
-He's gonna pick you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4
-Personally, I’d fire her immediately, but I can’t. How can I tactfully handle this situation?</t>
+not an HR professional but if I were you I'd be applying for a new job like crazy. No job is worth being treated the way you say you have been treated. Move on and find better.</t>
   </si>
   <si>
     <t xml:space="preserve">3
-I would ty to calmly explain to your father that continuing to employ this person could be placing his entire company (and legacy) at risk. It only takes one public incident or report from a customer to get his name plastered all over the wrong side of these issues. That is a huge amount of exposure for a small company.
-It doesn't even have to be public since you are an agency for a larger company. If that larger company gets wind of this conduct and that it was known to your father, all it takes is word getting to them to sink the whole business. That only takes ONE disgruntled customer, one pissed off employee, or even some random person in the general public that sees the kind of shit that they undoubtedly post online and figures out who they work for.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2
-Thanks everyone for the help! I had a pretty good idea of how I was planning on fixing this situation, but just needed some input to make sure I go about things correctly!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2
-I also worked for my old man for 10 years. If you have outside forces that can deal with this, use them. Your dad is treating this like his whiny teenager is throwing a tantrum and eventually it'll wear itself out. I wasn't able to get a handle on the trouble employees and it came to a head between me and my father and we had to part professional company. Be prepared for knock on effects. This'll damage whatever relationship you have with your dad, possibly your mom and other relatives.</t>
+This is a legit and completely billable and ADA compliant code for any doc to use where this is happening.</t>
   </si>
 </sst>
 </file>
@@ -1734,10 +2072,10 @@
         <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>322</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1776,10 +2114,10 @@
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>1095</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1816,10 +2154,10 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>144</v>
+        <v>547</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -1845,14 +2183,18 @@
       <c r="H5" t="s">
         <v>49</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
       <c r="K5"/>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>166</v>
+        <v>377</v>
       </c>
       <c r="N5" t="n">
         <v>8</v>
@@ -1860,151 +2202,161 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>71</v>
+      </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="N7" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
       <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>311</v>
+      </c>
+      <c r="N8" t="n">
         <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>183</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L9" t="n">
         <v>8</v>
@@ -2018,32 +2370,32 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K10"/>
       <c r="L10" t="n">
@@ -2058,68 +2410,66 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K11"/>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>114</v>
+        <v>291</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -2136,26 +2486,26 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -2172,397 +2522,393 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H14" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14"/>
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="N14" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
-      </c>
-      <c r="K15"/>
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L16" t="n">
         <v>8</v>
       </c>
       <c r="M16" t="n">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
-      </c>
-      <c r="J17" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" t="s">
-        <v>155</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="N17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" t="s">
-        <v>164</v>
-      </c>
-      <c r="K18" t="s">
-        <v>165</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
       <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>166</v>
+      </c>
+      <c r="N18" t="n">
         <v>8</v>
-      </c>
-      <c r="M18" t="n">
-        <v>220</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L19" t="n">
         <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C20"/>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
-      </c>
-      <c r="J20"/>
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="N20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H21" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
-      </c>
-      <c r="J21"/>
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
       <c r="K21"/>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22"/>
-      <c r="I22"/>
+        <v>202</v>
+      </c>
+      <c r="H22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" t="s">
-        <v>204</v>
-      </c>
-      <c r="I23" t="s">
-        <v>205</v>
-      </c>
-      <c r="J23" t="s">
-        <v>206</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="N23" t="n">
         <v>9</v>
@@ -2570,193 +2916,199 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H24" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24"/>
+        <v>219</v>
+      </c>
+      <c r="K24" t="s">
+        <v>220</v>
+      </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M24" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="N24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G25" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H25" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K25"/>
       <c r="L25" t="n">
         <v>7</v>
       </c>
       <c r="M25" t="n">
-        <v>377</v>
+        <v>107</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C26"/>
       <c r="D26" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E26" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G26" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H26" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
-      </c>
-      <c r="K26" t="s">
-        <v>234</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="K26"/>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M26" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N26" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C27"/>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H27" t="s">
-        <v>241</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
+        <v>245</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M27" t="n">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="I28" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="L28" t="n">
         <v>8</v>
@@ -2770,44 +3122,294 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="H29" t="s">
-        <v>258</v>
-      </c>
-      <c r="I29" t="s">
-        <v>259</v>
-      </c>
-      <c r="J29" t="s">
-        <v>260</v>
-      </c>
-      <c r="K29" t="s">
-        <v>261</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
       <c r="L29" t="n">
+        <v>5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>80</v>
+      </c>
+      <c r="N29" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" t="s">
+        <v>271</v>
+      </c>
+      <c r="H30" t="s">
+        <v>272</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30" t="n">
+        <v>5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>75</v>
+      </c>
+      <c r="N30" t="n">
         <v>8</v>
       </c>
-      <c r="M29" t="n">
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" t="s">
+        <v>279</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31" t="n">
+        <v>6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>53</v>
+      </c>
+      <c r="N31" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>286</v>
+      </c>
+      <c r="H32" t="s">
+        <v>287</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="n">
+        <v>8</v>
+      </c>
+      <c r="M32" t="n">
+        <v>50</v>
+      </c>
+      <c r="N32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>291</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>292</v>
+      </c>
+      <c r="E33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F33" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" t="s">
+        <v>295</v>
+      </c>
+      <c r="H33" t="s">
+        <v>296</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33" t="n">
+        <v>7</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>300</v>
+      </c>
+      <c r="E34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F34" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" t="s">
+        <v>304</v>
+      </c>
+      <c r="I34" t="s">
+        <v>305</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" t="s">
+        <v>310</v>
+      </c>
+      <c r="F35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" t="s">
         <v>312</v>
       </c>
-      <c r="N29" t="n">
-        <v>3</v>
+      <c r="H35" t="s">
+        <v>313</v>
+      </c>
+      <c r="I35" t="s">
+        <v>314</v>
+      </c>
+      <c r="J35" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35" t="n">
+        <v>7</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" t="s">
+        <v>318</v>
+      </c>
+      <c r="F36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" t="s">
+        <v>320</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
